--- a/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Mensual.xlsx
+++ b/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>Serie</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:J308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5979,10 +5982,10 @@
         <v>95.90000000000001</v>
       </c>
       <c r="E146">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F146">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="G146">
         <v>71.3</v>
@@ -6011,7 +6014,7 @@
         <v>97.59999999999999</v>
       </c>
       <c r="E147">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F147">
         <v>83.59999999999999</v>
@@ -6142,7 +6145,7 @@
         <v>91.59999999999999</v>
       </c>
       <c r="F151">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G151">
         <v>71.2</v>
@@ -6162,16 +6165,16 @@
         <v>160</v>
       </c>
       <c r="B152">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="C152">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="D152">
         <v>100.3</v>
       </c>
       <c r="E152">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="F152">
         <v>82.90000000000001</v>
@@ -6209,7 +6212,7 @@
         <v>83.8</v>
       </c>
       <c r="G153">
-        <v>70.3</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H153">
         <v>81.3</v>
@@ -6235,10 +6238,10 @@
         <v>88.59999999999999</v>
       </c>
       <c r="E154">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F154">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G154">
         <v>70</v>
@@ -6250,7 +6253,7 @@
         <v>83</v>
       </c>
       <c r="J154">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -6258,7 +6261,7 @@
         <v>163</v>
       </c>
       <c r="B155">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C155">
         <v>88</v>
@@ -6296,16 +6299,16 @@
         <v>84.2</v>
       </c>
       <c r="D156">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="E156">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="F156">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G156">
-        <v>67.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H156">
         <v>82.3</v>
@@ -6325,13 +6328,13 @@
         <v>81.59999999999999</v>
       </c>
       <c r="C157">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D157">
         <v>94.3</v>
       </c>
       <c r="E157">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="F157">
         <v>81.5</v>
@@ -6354,7 +6357,7 @@
         <v>166</v>
       </c>
       <c r="B158">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="C158">
         <v>85.7</v>
@@ -6363,7 +6366,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="E158">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="F158">
         <v>81.09999999999999</v>
@@ -6386,13 +6389,13 @@
         <v>167</v>
       </c>
       <c r="B159">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="C159">
         <v>85.3</v>
       </c>
       <c r="D159">
-        <v>88</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E159">
         <v>85.7</v>
@@ -6427,7 +6430,7 @@
         <v>89.90000000000001</v>
       </c>
       <c r="E160">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F160">
         <v>83.40000000000001</v>
@@ -6459,7 +6462,7 @@
         <v>91.90000000000001</v>
       </c>
       <c r="E161">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="F161">
         <v>82.7</v>
@@ -6555,13 +6558,13 @@
         <v>89.90000000000001</v>
       </c>
       <c r="E164">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="F164">
         <v>83.90000000000001</v>
       </c>
       <c r="G164">
-        <v>64.09999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="H164">
         <v>81.2</v>
@@ -6593,7 +6596,7 @@
         <v>82.59999999999999</v>
       </c>
       <c r="G165">
-        <v>64.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="H165">
         <v>81.7</v>
@@ -6622,10 +6625,10 @@
         <v>83.3</v>
       </c>
       <c r="F166">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G166">
-        <v>64.59999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="H166">
         <v>82.09999999999999</v>
@@ -6654,7 +6657,7 @@
         <v>86.40000000000001</v>
       </c>
       <c r="F167">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="G167">
         <v>65.59999999999999</v>
@@ -6706,7 +6709,7 @@
         <v>177</v>
       </c>
       <c r="B169">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="C169">
         <v>88.5</v>
@@ -6741,7 +6744,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="C170">
-        <v>86.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="D170">
         <v>89.09999999999999</v>
@@ -6878,10 +6881,10 @@
         <v>87.59999999999999</v>
       </c>
       <c r="F174">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="G174">
-        <v>75.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="H174">
         <v>85.09999999999999</v>
@@ -6913,7 +6916,7 @@
         <v>84.40000000000001</v>
       </c>
       <c r="G175">
-        <v>74.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H175">
         <v>85.59999999999999</v>
@@ -7041,13 +7044,13 @@
         <v>86.40000000000001</v>
       </c>
       <c r="G179">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="H179">
         <v>87.40000000000001</v>
       </c>
       <c r="I179">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J179">
         <v>86.5</v>
@@ -7073,7 +7076,7 @@
         <v>87.3</v>
       </c>
       <c r="G180">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="H180">
         <v>88.3</v>
@@ -7131,13 +7134,13 @@
         <v>91.3</v>
       </c>
       <c r="E182">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="F182">
         <v>90.7</v>
       </c>
       <c r="G182">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H182">
         <v>89.5</v>
@@ -7160,7 +7163,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="D183">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E183">
         <v>92.59999999999999</v>
@@ -7195,7 +7198,7 @@
         <v>92.2</v>
       </c>
       <c r="E184">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="F184">
         <v>90.2</v>
@@ -7262,7 +7265,7 @@
         <v>93.7</v>
       </c>
       <c r="F186">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="G186">
         <v>85.8</v>
@@ -7291,7 +7294,7 @@
         <v>88.90000000000001</v>
       </c>
       <c r="E187">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F187">
         <v>91.3</v>
@@ -7323,7 +7326,7 @@
         <v>87.09999999999999</v>
       </c>
       <c r="E188">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="F188">
         <v>93.09999999999999</v>
@@ -7355,7 +7358,7 @@
         <v>89.7</v>
       </c>
       <c r="E189">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F189">
         <v>93.59999999999999</v>
@@ -7425,7 +7428,7 @@
         <v>93</v>
       </c>
       <c r="G191">
-        <v>87</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="H191">
         <v>93</v>
@@ -7445,7 +7448,7 @@
         <v>92.40000000000001</v>
       </c>
       <c r="C192">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="D192">
         <v>89.8</v>
@@ -7486,7 +7489,7 @@
         <v>95.7</v>
       </c>
       <c r="F193">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="G193">
         <v>90.90000000000001</v>
@@ -7515,7 +7518,7 @@
         <v>93.3</v>
       </c>
       <c r="E194">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F194">
         <v>93.59999999999999</v>
@@ -7547,7 +7550,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="E195">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="F195">
         <v>94.59999999999999</v>
@@ -7570,7 +7573,7 @@
         <v>204</v>
       </c>
       <c r="B196">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="C196">
         <v>96</v>
@@ -7579,7 +7582,7 @@
         <v>94.7</v>
       </c>
       <c r="E196">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F196">
         <v>95.09999999999999</v>
@@ -7643,7 +7646,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E198">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F198">
         <v>94.90000000000001</v>
@@ -7652,7 +7655,7 @@
         <v>91.3</v>
       </c>
       <c r="H198">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="I198">
         <v>95.8</v>
@@ -7666,7 +7669,7 @@
         <v>207</v>
       </c>
       <c r="B199">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="C199">
         <v>96.3</v>
@@ -7707,19 +7710,19 @@
         <v>91</v>
       </c>
       <c r="E200">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F200">
         <v>99.2</v>
       </c>
       <c r="G200">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="H200">
         <v>97.8</v>
       </c>
       <c r="I200">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="J200">
         <v>97.59999999999999</v>
@@ -7771,7 +7774,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E202">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F202">
         <v>94.5</v>
@@ -7867,7 +7870,7 @@
         <v>96.2</v>
       </c>
       <c r="E205">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="F205">
         <v>97.7</v>
@@ -7902,7 +7905,7 @@
         <v>99.3</v>
       </c>
       <c r="F206">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="G206">
         <v>95.59999999999999</v>
@@ -7937,7 +7940,7 @@
         <v>99.5</v>
       </c>
       <c r="G207">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="H207">
         <v>98.40000000000001</v>
@@ -7957,7 +7960,7 @@
         <v>98.7</v>
       </c>
       <c r="C208">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D208">
         <v>98.59999999999999</v>
@@ -7966,10 +7969,10 @@
         <v>99.5</v>
       </c>
       <c r="F208">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="G208">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="H208">
         <v>98.8</v>
@@ -8001,7 +8004,7 @@
         <v>100.1</v>
       </c>
       <c r="G209">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H209">
         <v>99.3</v>
@@ -8059,13 +8062,13 @@
         <v>103</v>
       </c>
       <c r="E211">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="F211">
         <v>99.7</v>
       </c>
       <c r="G211">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="H211">
         <v>100.6</v>
@@ -8091,13 +8094,13 @@
         <v>102.7</v>
       </c>
       <c r="E212">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="F212">
         <v>100.4</v>
       </c>
       <c r="G212">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="H212">
         <v>100.6</v>
@@ -8129,13 +8132,13 @@
         <v>99.59999999999999</v>
       </c>
       <c r="G213">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="H213">
         <v>100.1</v>
       </c>
       <c r="I213">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="J213">
         <v>100.5</v>
@@ -8152,7 +8155,7 @@
         <v>101.4</v>
       </c>
       <c r="D214">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="E214">
         <v>100.4</v>
@@ -8161,7 +8164,7 @@
         <v>100.7</v>
       </c>
       <c r="G214">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="H214">
         <v>100.1</v>
@@ -8170,7 +8173,7 @@
         <v>100.6</v>
       </c>
       <c r="J214">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -8193,7 +8196,7 @@
         <v>100.5</v>
       </c>
       <c r="G215">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="H215">
         <v>100.7</v>
@@ -8225,7 +8228,7 @@
         <v>100.7</v>
       </c>
       <c r="G216">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="H216">
         <v>101.1</v>
@@ -8257,13 +8260,13 @@
         <v>100.9</v>
       </c>
       <c r="G217">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="H217">
         <v>101.6</v>
       </c>
       <c r="I217">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="J217">
         <v>100.7</v>
@@ -8277,7 +8280,7 @@
         <v>100.7</v>
       </c>
       <c r="C218">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="D218">
         <v>101</v>
@@ -8312,16 +8315,16 @@
         <v>100.5</v>
       </c>
       <c r="D219">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="E219">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F219">
         <v>98</v>
       </c>
       <c r="G219">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="H219">
         <v>102.1</v>
@@ -8347,7 +8350,7 @@
         <v>101.8</v>
       </c>
       <c r="E220">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="F220">
         <v>98.7</v>
@@ -8379,13 +8382,13 @@
         <v>102.8</v>
       </c>
       <c r="E221">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="F221">
         <v>98.90000000000001</v>
       </c>
       <c r="G221">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="H221">
         <v>101.7</v>
@@ -8408,22 +8411,22 @@
         <v>101.6</v>
       </c>
       <c r="D222">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="E222">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="F222">
         <v>99.7</v>
       </c>
       <c r="G222">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="H222">
         <v>102</v>
       </c>
       <c r="I222">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="J222">
         <v>101.7</v>
@@ -8437,7 +8440,7 @@
         <v>101.4</v>
       </c>
       <c r="C223">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="D223">
         <v>104.5</v>
@@ -8458,7 +8461,7 @@
         <v>101.5</v>
       </c>
       <c r="J223">
-        <v>101.1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -8475,19 +8478,19 @@
         <v>103.8</v>
       </c>
       <c r="E224">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F224">
         <v>97.3</v>
       </c>
       <c r="G224">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="H224">
         <v>102.5</v>
       </c>
       <c r="I224">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="J224">
         <v>101.1</v>
@@ -8504,7 +8507,7 @@
         <v>98.5</v>
       </c>
       <c r="D225">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E225">
         <v>98.40000000000001</v>
@@ -8536,7 +8539,7 @@
         <v>100.2</v>
       </c>
       <c r="D226">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="E226">
         <v>97.90000000000001</v>
@@ -8545,7 +8548,7 @@
         <v>100.8</v>
       </c>
       <c r="G226">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="H226">
         <v>103.1</v>
@@ -8577,7 +8580,7 @@
         <v>103.5</v>
       </c>
       <c r="G227">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="H227">
         <v>103.6</v>
@@ -8609,7 +8612,7 @@
         <v>103.8</v>
       </c>
       <c r="G228">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="H228">
         <v>104</v>
@@ -8667,7 +8670,7 @@
         <v>108.5</v>
       </c>
       <c r="E230">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F230">
         <v>99.5</v>
@@ -8696,7 +8699,7 @@
         <v>100.7</v>
       </c>
       <c r="D231">
-        <v>103.9</v>
+        <v>104.1</v>
       </c>
       <c r="E231">
         <v>97.5</v>
@@ -8705,7 +8708,7 @@
         <v>100.8</v>
       </c>
       <c r="G231">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="H231">
         <v>104.1</v>
@@ -8734,7 +8737,7 @@
         <v>97.3</v>
       </c>
       <c r="F232">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="G232">
         <v>104.2</v>
@@ -8769,7 +8772,7 @@
         <v>105.3</v>
       </c>
       <c r="G233">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="H233">
         <v>104.7</v>
@@ -8789,19 +8792,19 @@
         <v>104</v>
       </c>
       <c r="C234">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="D234">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="E234">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="F234">
         <v>104.3</v>
       </c>
       <c r="G234">
-        <v>104</v>
+        <v>104.2</v>
       </c>
       <c r="H234">
         <v>105.5</v>
@@ -8821,19 +8824,19 @@
         <v>104.6</v>
       </c>
       <c r="C235">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="D235">
         <v>107.9</v>
       </c>
       <c r="E235">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="F235">
         <v>104.7</v>
       </c>
       <c r="G235">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="H235">
         <v>105</v>
@@ -8856,16 +8859,16 @@
         <v>101.3</v>
       </c>
       <c r="D236">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E236">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="F236">
         <v>104.2</v>
       </c>
       <c r="G236">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="H236">
         <v>105.8</v>
@@ -8888,19 +8891,19 @@
         <v>98.40000000000001</v>
       </c>
       <c r="D237">
-        <v>89.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="E237">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F237">
         <v>106.7</v>
       </c>
       <c r="G237">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="H237">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="I237">
         <v>102.9</v>
@@ -8929,10 +8932,10 @@
         <v>106.8</v>
       </c>
       <c r="G238">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="H238">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="I238">
         <v>104.6</v>
@@ -8955,7 +8958,7 @@
         <v>101.9</v>
       </c>
       <c r="E239">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F239">
         <v>105.7</v>
@@ -8978,7 +8981,7 @@
         <v>248</v>
       </c>
       <c r="B240">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="C240">
         <v>101.8</v>
@@ -8993,7 +8996,7 @@
         <v>106.2</v>
       </c>
       <c r="G240">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="H240">
         <v>107.2</v>
@@ -9016,7 +9019,7 @@
         <v>102.2</v>
       </c>
       <c r="D241">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="E241">
         <v>99.3</v>
@@ -9025,7 +9028,7 @@
         <v>106.2</v>
       </c>
       <c r="G241">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="H241">
         <v>107</v>
@@ -9054,10 +9057,10 @@
         <v>99.09999999999999</v>
       </c>
       <c r="F242">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="G242">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="H242">
         <v>107.6</v>
@@ -9080,7 +9083,7 @@
         <v>103.4</v>
       </c>
       <c r="D243">
-        <v>103.8</v>
+        <v>104</v>
       </c>
       <c r="E243">
         <v>99.40000000000001</v>
@@ -9106,28 +9109,28 @@
         <v>252</v>
       </c>
       <c r="B244">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="C244">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="D244">
         <v>104.2</v>
       </c>
       <c r="E244">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="F244">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="G244">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="H244">
         <v>108.1</v>
       </c>
       <c r="I244">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="J244">
         <v>106</v>
@@ -9147,13 +9150,13 @@
         <v>98.8</v>
       </c>
       <c r="E245">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F245">
         <v>106.7</v>
       </c>
       <c r="G245">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="H245">
         <v>108</v>
@@ -9176,16 +9179,16 @@
         <v>101.6</v>
       </c>
       <c r="D246">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="E246">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F246">
         <v>106.6</v>
       </c>
       <c r="G246">
-        <v>103.3</v>
+        <v>103.6</v>
       </c>
       <c r="H246">
         <v>108.3</v>
@@ -9208,7 +9211,7 @@
         <v>102.6</v>
       </c>
       <c r="D247">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="E247">
         <v>98.90000000000001</v>
@@ -9217,7 +9220,7 @@
         <v>108</v>
       </c>
       <c r="G247">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="H247">
         <v>108.5</v>
@@ -9243,13 +9246,13 @@
         <v>98.40000000000001</v>
       </c>
       <c r="E248">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="F248">
         <v>108</v>
       </c>
       <c r="G248">
-        <v>105.8</v>
+        <v>105.5</v>
       </c>
       <c r="H248">
         <v>108.7</v>
@@ -9258,7 +9261,7 @@
         <v>105.5</v>
       </c>
       <c r="J248">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -9269,7 +9272,7 @@
         <v>105.7</v>
       </c>
       <c r="C249">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D249">
         <v>94.40000000000001</v>
@@ -9281,10 +9284,10 @@
         <v>108.6</v>
       </c>
       <c r="G249">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="H249">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="I249">
         <v>105.6</v>
@@ -9313,13 +9316,13 @@
         <v>108.8</v>
       </c>
       <c r="G250">
-        <v>105.3</v>
+        <v>105.1</v>
       </c>
       <c r="H250">
         <v>108.9</v>
       </c>
       <c r="I250">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="J250">
         <v>107.1</v>
@@ -9339,10 +9342,10 @@
         <v>94</v>
       </c>
       <c r="E251">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F251">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="G251">
         <v>105.3</v>
@@ -9377,7 +9380,7 @@
         <v>108.2</v>
       </c>
       <c r="G252">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="H252">
         <v>108.7</v>
@@ -9403,13 +9406,13 @@
         <v>94.8</v>
       </c>
       <c r="E253">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F253">
         <v>106.6</v>
       </c>
       <c r="G253">
-        <v>106.4</v>
+        <v>106.2</v>
       </c>
       <c r="H253">
         <v>109.1</v>
@@ -9441,13 +9444,13 @@
         <v>106.3</v>
       </c>
       <c r="G254">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="H254">
         <v>108.6</v>
       </c>
       <c r="I254">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="J254">
         <v>106.7</v>
@@ -9461,19 +9464,19 @@
         <v>105.2</v>
       </c>
       <c r="C255">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D255">
-        <v>88.7</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E255">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="F255">
         <v>108.3</v>
       </c>
       <c r="G255">
-        <v>107.1</v>
+        <v>107.4</v>
       </c>
       <c r="H255">
         <v>108.5</v>
@@ -9493,19 +9496,19 @@
         <v>104.5</v>
       </c>
       <c r="C256">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="D256">
         <v>81.09999999999999</v>
       </c>
       <c r="E256">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="F256">
-        <v>106.9</v>
+        <v>106.7</v>
       </c>
       <c r="G256">
-        <v>108.4</v>
+        <v>108.6</v>
       </c>
       <c r="H256">
         <v>108.1</v>
@@ -9522,7 +9525,7 @@
         <v>265</v>
       </c>
       <c r="B257">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="C257">
         <v>100.2</v>
@@ -9531,22 +9534,22 @@
         <v>96.59999999999999</v>
       </c>
       <c r="E257">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F257">
         <v>105.5</v>
       </c>
       <c r="G257">
-        <v>110.1</v>
+        <v>110.5</v>
       </c>
       <c r="H257">
         <v>108.5</v>
       </c>
       <c r="I257">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="J257">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -9557,28 +9560,28 @@
         <v>106.3</v>
       </c>
       <c r="C258">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="D258">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E258">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F258">
         <v>105.5</v>
       </c>
       <c r="G258">
-        <v>109.7</v>
+        <v>110.1</v>
       </c>
       <c r="H258">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="I258">
         <v>106.2</v>
       </c>
       <c r="J258">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -9589,10 +9592,10 @@
         <v>106.8</v>
       </c>
       <c r="C259">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="D259">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E259">
         <v>99.09999999999999</v>
@@ -9601,16 +9604,16 @@
         <v>105.1</v>
       </c>
       <c r="G259">
+        <v>110.2</v>
+      </c>
+      <c r="H259">
         <v>109.8</v>
-      </c>
-      <c r="H259">
-        <v>109.7</v>
       </c>
       <c r="I259">
         <v>106.4</v>
       </c>
       <c r="J259">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -9618,22 +9621,22 @@
         <v>268</v>
       </c>
       <c r="B260">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="C260">
         <v>102.6</v>
       </c>
       <c r="D260">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="E260">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="F260">
         <v>107.2</v>
       </c>
       <c r="G260">
-        <v>110.5</v>
+        <v>109.7</v>
       </c>
       <c r="H260">
         <v>110.7</v>
@@ -9642,7 +9645,7 @@
         <v>107.6</v>
       </c>
       <c r="J260">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -9650,28 +9653,28 @@
         <v>269</v>
       </c>
       <c r="B261">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="C261">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D261">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="E261">
         <v>100.5</v>
       </c>
       <c r="F261">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="G261">
-        <v>108</v>
+        <v>107.6</v>
       </c>
       <c r="H261">
         <v>110.7</v>
       </c>
       <c r="I261">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="J261">
         <v>108.7</v>
@@ -9685,7 +9688,7 @@
         <v>108.7</v>
       </c>
       <c r="C262">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D262">
         <v>102.3</v>
@@ -9694,16 +9697,16 @@
         <v>102.6</v>
       </c>
       <c r="F262">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="G262">
-        <v>110.1</v>
+        <v>109.7</v>
       </c>
       <c r="H262">
         <v>111</v>
       </c>
       <c r="I262">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="J262">
         <v>109.4</v>
@@ -9729,7 +9732,7 @@
         <v>108.8</v>
       </c>
       <c r="G263">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="H263">
         <v>111.2</v>
@@ -9761,7 +9764,7 @@
         <v>108.6</v>
       </c>
       <c r="G264">
-        <v>111.9</v>
+        <v>111.6</v>
       </c>
       <c r="H264">
         <v>111.3</v>
@@ -9793,7 +9796,7 @@
         <v>108.5</v>
       </c>
       <c r="G265">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="H265">
         <v>111.6</v>
@@ -9802,7 +9805,7 @@
         <v>108.6</v>
       </c>
       <c r="J265">
-        <v>110.1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -9810,31 +9813,31 @@
         <v>274</v>
       </c>
       <c r="B266">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="C266">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D266">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="E266">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="F266">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="G266">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="H266">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="I266">
         <v>109.9</v>
       </c>
       <c r="J266">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -9842,28 +9845,28 @@
         <v>275</v>
       </c>
       <c r="B267">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="C267">
         <v>106.6</v>
       </c>
       <c r="D267">
-        <v>107.6</v>
+        <v>107.8</v>
       </c>
       <c r="E267">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="F267">
         <v>110.4</v>
       </c>
       <c r="G267">
-        <v>111.7</v>
+        <v>111.9</v>
       </c>
       <c r="H267">
         <v>112.1</v>
       </c>
       <c r="I267">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="J267">
         <v>110.5</v>
@@ -9877,25 +9880,25 @@
         <v>110.7</v>
       </c>
       <c r="C268">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="D268">
         <v>105.2</v>
       </c>
       <c r="E268">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="F268">
-        <v>111</v>
+        <v>110.7</v>
       </c>
       <c r="G268">
-        <v>113.5</v>
+        <v>113.9</v>
       </c>
       <c r="H268">
         <v>112.9</v>
       </c>
       <c r="I268">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="J268">
         <v>111.2</v>
@@ -9906,28 +9909,28 @@
         <v>277</v>
       </c>
       <c r="B269">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="C269">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="D269">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="E269">
-        <v>105.9</v>
+        <v>105.7</v>
       </c>
       <c r="F269">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="G269">
-        <v>113.9</v>
+        <v>114.2</v>
       </c>
       <c r="H269">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="I269">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="J269">
         <v>112.4</v>
@@ -9941,28 +9944,28 @@
         <v>111.5</v>
       </c>
       <c r="C270">
-        <v>106.2</v>
+        <v>106</v>
       </c>
       <c r="D270">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="E270">
-        <v>103.9</v>
+        <v>103.7</v>
       </c>
       <c r="F270">
-        <v>110.3</v>
+        <v>110.1</v>
       </c>
       <c r="G270">
-        <v>114</v>
+        <v>114.8</v>
       </c>
       <c r="H270">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="I270">
         <v>111.1</v>
       </c>
       <c r="J270">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9973,28 +9976,28 @@
         <v>111.2</v>
       </c>
       <c r="C271">
-        <v>106.2</v>
+        <v>106</v>
       </c>
       <c r="D271">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="E271">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="F271">
-        <v>110</v>
+        <v>109.9</v>
       </c>
       <c r="G271">
-        <v>114.3</v>
+        <v>114.9</v>
       </c>
       <c r="H271">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="I271">
         <v>110.7</v>
       </c>
       <c r="J271">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -10002,31 +10005,31 @@
         <v>280</v>
       </c>
       <c r="B272">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C272">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D272">
-        <v>103.8</v>
+        <v>104.1</v>
       </c>
       <c r="E272">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="F272">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="G272">
-        <v>114.2</v>
+        <v>113.3</v>
       </c>
       <c r="H272">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
       <c r="I272">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="J272">
-        <v>112</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -10037,25 +10040,25 @@
         <v>110.4</v>
       </c>
       <c r="C273">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D273">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E273">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="F273">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="G273">
-        <v>114.2</v>
+        <v>113.6</v>
       </c>
       <c r="H273">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="I273">
-        <v>110</v>
+        <v>109.9</v>
       </c>
       <c r="J273">
         <v>111.8</v>
@@ -10066,31 +10069,31 @@
         <v>282</v>
       </c>
       <c r="B274">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C274">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D274">
         <v>100.7</v>
       </c>
       <c r="E274">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="F274">
-        <v>108.4</v>
+        <v>108.6</v>
       </c>
       <c r="G274">
-        <v>113.8</v>
+        <v>113.2</v>
       </c>
       <c r="H274">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="I274">
         <v>110.8</v>
       </c>
       <c r="J274">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -10101,19 +10104,19 @@
         <v>111.8</v>
       </c>
       <c r="C275">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D275">
         <v>98.59999999999999</v>
       </c>
       <c r="E275">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="F275">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="G275">
-        <v>114.1</v>
+        <v>113.9</v>
       </c>
       <c r="H275">
         <v>115.2</v>
@@ -10133,19 +10136,19 @@
         <v>113.1</v>
       </c>
       <c r="C276">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="D276">
         <v>110.2</v>
       </c>
       <c r="E276">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="F276">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="G276">
-        <v>113</v>
+        <v>112.8</v>
       </c>
       <c r="H276">
         <v>115.6</v>
@@ -10168,25 +10171,25 @@
         <v>105.4</v>
       </c>
       <c r="D277">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="E277">
         <v>103.5</v>
       </c>
       <c r="F277">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="G277">
-        <v>113.4</v>
+        <v>113.2</v>
       </c>
       <c r="H277">
-        <v>115.6</v>
+        <v>115.7</v>
       </c>
       <c r="I277">
         <v>111.5</v>
       </c>
       <c r="J277">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -10197,19 +10200,19 @@
         <v>112.3</v>
       </c>
       <c r="C278">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D278">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E278">
-        <v>104.5</v>
+        <v>104.7</v>
       </c>
       <c r="F278">
         <v>111.4</v>
       </c>
       <c r="G278">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="H278">
         <v>116.4</v>
@@ -10232,7 +10235,7 @@
         <v>103.2</v>
       </c>
       <c r="D279">
-        <v>94.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E279">
         <v>102.2</v>
@@ -10241,13 +10244,13 @@
         <v>110.7</v>
       </c>
       <c r="G279">
-        <v>114</v>
+        <v>114.3</v>
       </c>
       <c r="H279">
         <v>116</v>
       </c>
       <c r="I279">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="J279">
         <v>113.1</v>
@@ -10261,28 +10264,28 @@
         <v>112.3</v>
       </c>
       <c r="C280">
-        <v>104.9</v>
+        <v>104.7</v>
       </c>
       <c r="D280">
         <v>97.5</v>
       </c>
       <c r="E280">
-        <v>103.2</v>
+        <v>103</v>
       </c>
       <c r="F280">
-        <v>111.7</v>
+        <v>111.4</v>
       </c>
       <c r="G280">
-        <v>114.3</v>
+        <v>114.8</v>
       </c>
       <c r="H280">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="I280">
         <v>112</v>
       </c>
       <c r="J280">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -10290,31 +10293,31 @@
         <v>289</v>
       </c>
       <c r="B281">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="C281">
-        <v>105.6</v>
+        <v>105.4</v>
       </c>
       <c r="D281">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E281">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="F281">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="G281">
-        <v>116.1</v>
+        <v>116.6</v>
       </c>
       <c r="H281">
-        <v>117.1</v>
+        <v>117.3</v>
       </c>
       <c r="I281">
         <v>112.7</v>
       </c>
       <c r="J281">
-        <v>114.6</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -10325,19 +10328,19 @@
         <v>113.7</v>
       </c>
       <c r="C282">
-        <v>105.7</v>
+        <v>105.4</v>
       </c>
       <c r="D282">
-        <v>97.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="E282">
-        <v>105.7</v>
+        <v>105.5</v>
       </c>
       <c r="F282">
-        <v>112.1</v>
+        <v>111.8</v>
       </c>
       <c r="G282">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H282">
         <v>117.9</v>
@@ -10346,7 +10349,7 @@
         <v>113.2</v>
       </c>
       <c r="J282">
-        <v>115.4</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -10354,31 +10357,31 @@
         <v>291</v>
       </c>
       <c r="B283">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
       <c r="C283">
-        <v>105.9</v>
+        <v>105.7</v>
       </c>
       <c r="D283">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="E283">
-        <v>104.5</v>
+        <v>104.3</v>
       </c>
       <c r="F283">
-        <v>112.7</v>
+        <v>112.5</v>
       </c>
       <c r="G283">
-        <v>115.5</v>
+        <v>116.5</v>
       </c>
       <c r="H283">
-        <v>116.7</v>
+        <v>116.9</v>
       </c>
       <c r="I283">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="J283">
-        <v>114.3</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -10386,31 +10389,31 @@
         <v>292</v>
       </c>
       <c r="B284">
-        <v>113.3</v>
+        <v>113.1</v>
       </c>
       <c r="C284">
-        <v>106.5</v>
+        <v>106.8</v>
       </c>
       <c r="D284">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="E284">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="F284">
-        <v>112.2</v>
+        <v>112.4</v>
       </c>
       <c r="G284">
-        <v>115.2</v>
+        <v>113.8</v>
       </c>
       <c r="H284">
-        <v>117.1</v>
+        <v>117</v>
       </c>
       <c r="I284">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
       <c r="J284">
-        <v>114.6</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -10421,28 +10424,28 @@
         <v>114.6</v>
       </c>
       <c r="C285">
-        <v>107.7</v>
+        <v>107.9</v>
       </c>
       <c r="D285">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="E285">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="F285">
-        <v>112.7</v>
+        <v>113</v>
       </c>
       <c r="G285">
-        <v>116.1</v>
+        <v>115.2</v>
       </c>
       <c r="H285">
-        <v>118.4</v>
+        <v>118.3</v>
       </c>
       <c r="I285">
         <v>114.1</v>
       </c>
       <c r="J285">
-        <v>115.8</v>
+        <v>115.7</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -10453,25 +10456,25 @@
         <v>114.2</v>
       </c>
       <c r="C286">
-        <v>107.3</v>
+        <v>107.5</v>
       </c>
       <c r="D286">
         <v>102.6</v>
       </c>
       <c r="E286">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="F286">
-        <v>112.8</v>
+        <v>113.2</v>
       </c>
       <c r="G286">
-        <v>115.5</v>
+        <v>114.6</v>
       </c>
       <c r="H286">
-        <v>118.6</v>
+        <v>118.5</v>
       </c>
       <c r="I286">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="J286">
         <v>115.4</v>
@@ -10485,19 +10488,19 @@
         <v>108.1</v>
       </c>
       <c r="C287">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D287">
         <v>100</v>
       </c>
       <c r="E287">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F287">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="G287">
-        <v>105.1</v>
+        <v>104.8</v>
       </c>
       <c r="H287">
         <v>111.9</v>
@@ -10523,16 +10526,16 @@
         <v>101.4</v>
       </c>
       <c r="E288">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="F288">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="G288">
-        <v>106.3</v>
+        <v>106</v>
       </c>
       <c r="H288">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="I288">
         <v>108.7</v>
@@ -10546,13 +10549,13 @@
         <v>297</v>
       </c>
       <c r="B289">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="C289">
         <v>106.9</v>
       </c>
       <c r="D289">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="E289">
         <v>103.5</v>
@@ -10561,7 +10564,7 @@
         <v>111.9</v>
       </c>
       <c r="G289">
-        <v>112.8</v>
+        <v>112.4</v>
       </c>
       <c r="H289">
         <v>115.5</v>
@@ -10578,28 +10581,28 @@
         <v>298</v>
       </c>
       <c r="B290">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="C290">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D290">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="E290">
-        <v>104</v>
+        <v>104.2</v>
       </c>
       <c r="F290">
-        <v>112.7</v>
+        <v>112.8</v>
       </c>
       <c r="G290">
-        <v>113.8</v>
+        <v>114</v>
       </c>
       <c r="H290">
         <v>118</v>
       </c>
       <c r="I290">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="J290">
         <v>115</v>
@@ -10610,22 +10613,22 @@
         <v>299</v>
       </c>
       <c r="B291">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="C291">
         <v>107.3</v>
       </c>
       <c r="D291">
-        <v>102.4</v>
+        <v>102.7</v>
       </c>
       <c r="E291">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="F291">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="G291">
-        <v>114.3</v>
+        <v>114.6</v>
       </c>
       <c r="H291">
         <v>118.4</v>
@@ -10642,31 +10645,31 @@
         <v>300</v>
       </c>
       <c r="B292">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="C292">
-        <v>104.9</v>
+        <v>104.6</v>
       </c>
       <c r="D292">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="E292">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F292">
-        <v>112</v>
+        <v>111.5</v>
       </c>
       <c r="G292">
-        <v>104.9</v>
+        <v>105.4</v>
       </c>
       <c r="H292">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="I292">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="J292">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -10674,31 +10677,31 @@
         <v>301</v>
       </c>
       <c r="B293">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="C293">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="D293">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="E293">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="F293">
-        <v>105.2</v>
+        <v>104.8</v>
       </c>
       <c r="G293">
-        <v>92</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="H293">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="I293">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J293">
-        <v>98.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -10709,28 +10712,28 @@
         <v>97.2</v>
       </c>
       <c r="C294">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D294">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="E294">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F294">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="G294">
-        <v>92.7</v>
+        <v>93.8</v>
       </c>
       <c r="H294">
         <v>98.2</v>
       </c>
       <c r="I294">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="J294">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -10738,31 +10741,31 @@
         <v>303</v>
       </c>
       <c r="B295">
-        <v>96.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C295">
-        <v>94.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D295">
-        <v>102.2</v>
+        <v>101.5</v>
       </c>
       <c r="E295">
-        <v>91.5</v>
+        <v>91.2</v>
       </c>
       <c r="F295">
-        <v>90.5</v>
+        <v>90.3</v>
       </c>
       <c r="G295">
-        <v>96.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="H295">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="I295">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="J295">
-        <v>96</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -10770,31 +10773,31 @@
         <v>304</v>
       </c>
       <c r="B296">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="C296">
-        <v>95.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D296">
-        <v>102.7</v>
+        <v>103.3</v>
       </c>
       <c r="E296">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="F296">
-        <v>90.59999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G296">
-        <v>103.9</v>
+        <v>102.3</v>
       </c>
       <c r="H296">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="I296">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J296">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -10805,25 +10808,25 @@
         <v>102.3</v>
       </c>
       <c r="C297">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="D297">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="E297">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="F297">
-        <v>93.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="G297">
-        <v>118.2</v>
+        <v>117</v>
       </c>
       <c r="H297">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="I297">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="J297">
         <v>102.3</v>
@@ -10834,31 +10837,31 @@
         <v>306</v>
       </c>
       <c r="B298">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="C298">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="D298">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="E298">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="F298">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G298">
-        <v>121.2</v>
+        <v>120</v>
       </c>
       <c r="H298">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="I298">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="J298">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -10866,22 +10869,22 @@
         <v>307</v>
       </c>
       <c r="B299">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="C299">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="D299">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="E299">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="F299">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="G299">
-        <v>122.1</v>
+        <v>121.7</v>
       </c>
       <c r="H299">
         <v>106.2</v>
@@ -10890,7 +10893,7 @@
         <v>106.7</v>
       </c>
       <c r="J299">
-        <v>108</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -10910,10 +10913,10 @@
         <v>104.6</v>
       </c>
       <c r="F300">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="G300">
-        <v>122.8</v>
+        <v>122.4</v>
       </c>
       <c r="H300">
         <v>109.1</v>
@@ -10933,22 +10936,22 @@
         <v>112</v>
       </c>
       <c r="C301">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D301">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E301">
         <v>105.6</v>
       </c>
       <c r="F301">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="G301">
-        <v>124</v>
+        <v>123.6</v>
       </c>
       <c r="H301">
-        <v>114.7</v>
+        <v>114.8</v>
       </c>
       <c r="I301">
         <v>111.5</v>
@@ -10965,28 +10968,28 @@
         <v>112.8</v>
       </c>
       <c r="C302">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D302">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="E302">
-        <v>105.3</v>
+        <v>105.7</v>
       </c>
       <c r="F302">
         <v>106.9</v>
       </c>
       <c r="G302">
-        <v>125.9</v>
+        <v>125.4</v>
       </c>
       <c r="H302">
-        <v>115.8</v>
+        <v>115.9</v>
       </c>
       <c r="I302">
         <v>112.3</v>
       </c>
       <c r="J302">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -10994,31 +10997,31 @@
         <v>311</v>
       </c>
       <c r="B303">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="C303">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D303">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="E303">
-        <v>106.2</v>
+        <v>107</v>
       </c>
       <c r="F303">
         <v>106.7</v>
       </c>
       <c r="G303">
-        <v>126.1</v>
+        <v>125.7</v>
       </c>
       <c r="H303">
-        <v>117.9</v>
+        <v>118.1</v>
       </c>
       <c r="I303">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="J303">
-        <v>115.8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -11026,31 +11029,31 @@
         <v>312</v>
       </c>
       <c r="B304">
-        <v>112.6</v>
+        <v>113</v>
       </c>
       <c r="C304">
-        <v>104.6</v>
+        <v>105.3</v>
       </c>
       <c r="D304">
-        <v>101.3</v>
+        <v>102</v>
       </c>
       <c r="E304">
-        <v>105.2</v>
+        <v>106.3</v>
       </c>
       <c r="F304">
-        <v>107.2</v>
+        <v>107.6</v>
       </c>
       <c r="G304">
-        <v>124.5</v>
+        <v>124.8</v>
       </c>
       <c r="H304">
-        <v>115</v>
+        <v>115.2</v>
       </c>
       <c r="I304">
-        <v>111.9</v>
+        <v>112.4</v>
       </c>
       <c r="J304">
-        <v>114</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -11058,31 +11061,31 @@
         <v>313</v>
       </c>
       <c r="B305">
-        <v>111</v>
+        <v>111.5</v>
       </c>
       <c r="C305">
-        <v>105.1</v>
+        <v>105.8</v>
       </c>
       <c r="D305">
-        <v>104.9</v>
+        <v>105.7</v>
       </c>
       <c r="E305">
-        <v>104.7</v>
+        <v>105.4</v>
       </c>
       <c r="F305">
-        <v>105.3</v>
+        <v>106</v>
       </c>
       <c r="G305">
-        <v>123.6</v>
+        <v>124.2</v>
       </c>
       <c r="H305">
-        <v>111.8</v>
+        <v>112</v>
       </c>
       <c r="I305">
-        <v>110.4</v>
+        <v>110.8</v>
       </c>
       <c r="J305">
-        <v>111.7</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -11090,31 +11093,31 @@
         <v>314</v>
       </c>
       <c r="B306">
+        <v>115.2</v>
+      </c>
+      <c r="C306">
+        <v>106.2</v>
+      </c>
+      <c r="D306">
+        <v>102.3</v>
+      </c>
+      <c r="E306">
+        <v>106.3</v>
+      </c>
+      <c r="F306">
+        <v>109.7</v>
+      </c>
+      <c r="G306">
+        <v>140.9</v>
+      </c>
+      <c r="H306">
         <v>114.1</v>
       </c>
-      <c r="C306">
-        <v>105.3</v>
-      </c>
-      <c r="D306">
-        <v>101.1</v>
-      </c>
-      <c r="E306">
-        <v>105.7</v>
-      </c>
-      <c r="F306">
-        <v>108.9</v>
-      </c>
-      <c r="G306">
-        <v>140.1</v>
-      </c>
-      <c r="H306">
-        <v>113</v>
-      </c>
       <c r="I306">
-        <v>112.7</v>
+        <v>113.7</v>
       </c>
       <c r="J306">
-        <v>115.8</v>
+        <v>116.8</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -11122,31 +11125,63 @@
         <v>315</v>
       </c>
       <c r="B307">
-        <v>116.5</v>
+        <v>117.2</v>
       </c>
       <c r="C307">
-        <v>107.4</v>
+        <v>108.1</v>
       </c>
       <c r="D307">
-        <v>101.9</v>
+        <v>103.3</v>
       </c>
       <c r="E307">
-        <v>109.8</v>
+        <v>110.2</v>
       </c>
       <c r="F307">
-        <v>110.8</v>
+        <v>111</v>
       </c>
       <c r="G307">
-        <v>142.9</v>
+        <v>143.7</v>
       </c>
       <c r="H307">
-        <v>115.6</v>
+        <v>116.1</v>
       </c>
       <c r="I307">
-        <v>115.1</v>
+        <v>115.7</v>
       </c>
       <c r="J307">
-        <v>118.4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
+      <c r="A308" t="s">
+        <v>316</v>
+      </c>
+      <c r="B308">
+        <v>118.8</v>
+      </c>
+      <c r="C308">
+        <v>107.1</v>
+      </c>
+      <c r="D308">
+        <v>101.1</v>
+      </c>
+      <c r="E308">
+        <v>110.4</v>
+      </c>
+      <c r="F308">
+        <v>110.2</v>
+      </c>
+      <c r="G308">
+        <v>147.3</v>
+      </c>
+      <c r="H308">
+        <v>119</v>
+      </c>
+      <c r="I308">
+        <v>117.1</v>
+      </c>
+      <c r="J308">
+        <v>121.2</v>
       </c>
     </row>
   </sheetData>

--- a/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Mensual.xlsx
+++ b/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>Serie</t>
   </si>
@@ -965,6 +965,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J308"/>
+  <dimension ref="A1:J309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5988,16 +5991,16 @@
         <v>82</v>
       </c>
       <c r="G146">
-        <v>71.3</v>
+        <v>71.2</v>
       </c>
       <c r="H146">
         <v>78.90000000000001</v>
       </c>
       <c r="I146">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="J146">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -6005,7 +6008,7 @@
         <v>155</v>
       </c>
       <c r="B147">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="C147">
         <v>92.7</v>
@@ -6014,7 +6017,7 @@
         <v>97.59999999999999</v>
       </c>
       <c r="E147">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="F147">
         <v>83.59999999999999</v>
@@ -6078,7 +6081,7 @@
         <v>93.5</v>
       </c>
       <c r="E149">
-        <v>92.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F149">
         <v>82.09999999999999</v>
@@ -6107,7 +6110,7 @@
         <v>89.7</v>
       </c>
       <c r="D150">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E150">
         <v>89.90000000000001</v>
@@ -6139,7 +6142,7 @@
         <v>91.09999999999999</v>
       </c>
       <c r="D151">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E151">
         <v>91.59999999999999</v>
@@ -6165,13 +6168,13 @@
         <v>160</v>
       </c>
       <c r="B152">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C152">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="D152">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E152">
         <v>89.2</v>
@@ -6206,7 +6209,7 @@
         <v>83.7</v>
       </c>
       <c r="E153">
-        <v>89.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="F153">
         <v>83.8</v>
@@ -6229,13 +6232,13 @@
         <v>162</v>
       </c>
       <c r="B154">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C154">
-        <v>87.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="D154">
-        <v>88.59999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E154">
         <v>90.40000000000001</v>
@@ -6253,7 +6256,7 @@
         <v>83</v>
       </c>
       <c r="J154">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -6273,10 +6276,10 @@
         <v>86.7</v>
       </c>
       <c r="F155">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="G155">
-        <v>68.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="H155">
         <v>82.5</v>
@@ -6311,7 +6314,7 @@
         <v>67.40000000000001</v>
       </c>
       <c r="H156">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="I156">
         <v>81.3</v>
@@ -6331,7 +6334,7 @@
         <v>87.59999999999999</v>
       </c>
       <c r="D157">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="E157">
         <v>85</v>
@@ -6357,7 +6360,7 @@
         <v>166</v>
       </c>
       <c r="B158">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C158">
         <v>85.7</v>
@@ -6389,13 +6392,13 @@
         <v>167</v>
       </c>
       <c r="B159">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="C159">
         <v>85.3</v>
       </c>
       <c r="D159">
-        <v>88.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="E159">
         <v>85.7</v>
@@ -6404,7 +6407,7 @@
         <v>81.3</v>
       </c>
       <c r="G159">
-        <v>65</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H159">
         <v>81.7</v>
@@ -6421,7 +6424,7 @@
         <v>168</v>
       </c>
       <c r="B160">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="C160">
         <v>86.59999999999999</v>
@@ -6430,10 +6433,10 @@
         <v>89.90000000000001</v>
       </c>
       <c r="E160">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="F160">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="G160">
         <v>64.40000000000001</v>
@@ -6491,13 +6494,13 @@
         <v>86.40000000000001</v>
       </c>
       <c r="D162">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="E162">
         <v>82.8</v>
       </c>
       <c r="F162">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G162">
         <v>63.3</v>
@@ -6555,7 +6558,7 @@
         <v>86.59999999999999</v>
       </c>
       <c r="D164">
-        <v>89.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="E164">
         <v>84.7</v>
@@ -6613,13 +6616,13 @@
         <v>174</v>
       </c>
       <c r="B166">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="C166">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="D166">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E166">
         <v>83.3</v>
@@ -6628,13 +6631,13 @@
         <v>82.40000000000001</v>
       </c>
       <c r="G166">
-        <v>64.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="H166">
         <v>82.09999999999999</v>
       </c>
       <c r="I166">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="J166">
         <v>79.3</v>
@@ -6648,7 +6651,7 @@
         <v>82</v>
       </c>
       <c r="C167">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D167">
         <v>96.09999999999999</v>
@@ -6683,7 +6686,7 @@
         <v>88.2</v>
       </c>
       <c r="D168">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E168">
         <v>85.7</v>
@@ -6715,7 +6718,7 @@
         <v>88.5</v>
       </c>
       <c r="D169">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="E169">
         <v>87.59999999999999</v>
@@ -6724,16 +6727,16 @@
         <v>82.5</v>
       </c>
       <c r="G169">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="H169">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="I169">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="J169">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6744,7 +6747,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="C170">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D170">
         <v>89.09999999999999</v>
@@ -6811,7 +6814,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="D172">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E172">
         <v>71.8</v>
@@ -6875,7 +6878,7 @@
         <v>87.5</v>
       </c>
       <c r="D174">
-        <v>89.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="E174">
         <v>87.59999999999999</v>
@@ -6887,7 +6890,7 @@
         <v>75</v>
       </c>
       <c r="H174">
-        <v>85.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="I174">
         <v>85.09999999999999</v>
@@ -6919,7 +6922,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="H175">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="I175">
         <v>86.40000000000001</v>
@@ -6939,7 +6942,7 @@
         <v>91.5</v>
       </c>
       <c r="D176">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E176">
         <v>89.90000000000001</v>
@@ -6948,7 +6951,7 @@
         <v>85.09999999999999</v>
       </c>
       <c r="G176">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="H176">
         <v>86.3</v>
@@ -6971,7 +6974,7 @@
         <v>91.5</v>
       </c>
       <c r="D177">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E177">
         <v>90.2</v>
@@ -6997,13 +7000,13 @@
         <v>186</v>
       </c>
       <c r="B178">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="C178">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="D178">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="E178">
         <v>89.59999999999999</v>
@@ -7050,7 +7053,7 @@
         <v>87.40000000000001</v>
       </c>
       <c r="I179">
-        <v>88.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="J179">
         <v>86.5</v>
@@ -7067,7 +7070,7 @@
         <v>93</v>
       </c>
       <c r="D180">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E180">
         <v>92</v>
@@ -7096,16 +7099,16 @@
         <v>88.5</v>
       </c>
       <c r="C181">
-        <v>91</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D181">
-        <v>90.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E181">
         <v>91.8</v>
       </c>
       <c r="F181">
-        <v>88.7</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G181">
         <v>80.8</v>
@@ -7140,7 +7143,7 @@
         <v>90.7</v>
       </c>
       <c r="G182">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="H182">
         <v>89.5</v>
@@ -7163,7 +7166,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="D183">
-        <v>88.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="E183">
         <v>92.59999999999999</v>
@@ -7192,7 +7195,7 @@
         <v>90.2</v>
       </c>
       <c r="C184">
-        <v>92.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="D184">
         <v>92.2</v>
@@ -7259,7 +7262,7 @@
         <v>91.8</v>
       </c>
       <c r="D186">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="E186">
         <v>93.7</v>
@@ -7332,7 +7335,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="G188">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="H188">
         <v>91.7</v>
@@ -7355,16 +7358,16 @@
         <v>92.59999999999999</v>
       </c>
       <c r="D189">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="E189">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="F189">
         <v>93.59999999999999</v>
       </c>
       <c r="G189">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H189">
         <v>92.40000000000001</v>
@@ -7384,10 +7387,10 @@
         <v>91.40000000000001</v>
       </c>
       <c r="C190">
-        <v>91.40000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="D190">
-        <v>86.90000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="E190">
         <v>95.3</v>
@@ -7402,7 +7405,7 @@
         <v>92.3</v>
       </c>
       <c r="I190">
-        <v>91.40000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="J190">
         <v>92.09999999999999</v>
@@ -7416,10 +7419,10 @@
         <v>92.2</v>
       </c>
       <c r="C191">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="D191">
-        <v>92.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="E191">
         <v>93.5</v>
@@ -7460,7 +7463,7 @@
         <v>93</v>
       </c>
       <c r="G192">
-        <v>88.90000000000001</v>
+        <v>89</v>
       </c>
       <c r="H192">
         <v>93.5</v>
@@ -7477,13 +7480,13 @@
         <v>201</v>
       </c>
       <c r="B193">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C193">
         <v>95</v>
       </c>
       <c r="D193">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="E193">
         <v>95.7</v>
@@ -7492,13 +7495,13 @@
         <v>93.3</v>
       </c>
       <c r="G193">
-        <v>90.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="H193">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="I193">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="J193">
         <v>93.8</v>
@@ -7509,13 +7512,13 @@
         <v>202</v>
       </c>
       <c r="B194">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C194">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D194">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="E194">
         <v>96.8</v>
@@ -7547,13 +7550,13 @@
         <v>94.59999999999999</v>
       </c>
       <c r="D195">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="E195">
         <v>96.5</v>
       </c>
       <c r="F195">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="G195">
         <v>88.8</v>
@@ -7579,7 +7582,7 @@
         <v>96</v>
       </c>
       <c r="D196">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E196">
         <v>98.5</v>
@@ -7588,7 +7591,7 @@
         <v>95.09999999999999</v>
       </c>
       <c r="G196">
-        <v>90.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="H196">
         <v>96</v>
@@ -7611,7 +7614,7 @@
         <v>96.2</v>
       </c>
       <c r="D197">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E197">
         <v>97</v>
@@ -7623,7 +7626,7 @@
         <v>90.8</v>
       </c>
       <c r="H197">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I197">
         <v>95.8</v>
@@ -7643,7 +7646,7 @@
         <v>95.8</v>
       </c>
       <c r="D198">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="E198">
         <v>99.09999999999999</v>
@@ -7733,13 +7736,13 @@
         <v>209</v>
       </c>
       <c r="B201">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="C201">
         <v>97.3</v>
       </c>
       <c r="D201">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E201">
         <v>98.7</v>
@@ -7768,10 +7771,10 @@
         <v>96.3</v>
       </c>
       <c r="C202">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D202">
-        <v>93.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="E202">
         <v>98.09999999999999</v>
@@ -7780,13 +7783,13 @@
         <v>94.5</v>
       </c>
       <c r="G202">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="H202">
         <v>97.3</v>
       </c>
       <c r="I202">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="J202">
         <v>96.59999999999999</v>
@@ -7797,7 +7800,7 @@
         <v>211</v>
       </c>
       <c r="B203">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="C203">
         <v>96.2</v>
@@ -7835,7 +7838,7 @@
         <v>97</v>
       </c>
       <c r="D204">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E204">
         <v>98.40000000000001</v>
@@ -7844,7 +7847,7 @@
         <v>96.40000000000001</v>
       </c>
       <c r="G204">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H204">
         <v>98.09999999999999</v>
@@ -7864,10 +7867,10 @@
         <v>97.59999999999999</v>
       </c>
       <c r="C205">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D205">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E205">
         <v>96.5</v>
@@ -7905,7 +7908,7 @@
         <v>99.3</v>
       </c>
       <c r="F206">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G206">
         <v>95.59999999999999</v>
@@ -7928,7 +7931,7 @@
         <v>98</v>
       </c>
       <c r="C207">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D207">
         <v>96.7</v>
@@ -7940,7 +7943,7 @@
         <v>99.5</v>
       </c>
       <c r="G207">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H207">
         <v>98.40000000000001</v>
@@ -7963,13 +7966,13 @@
         <v>98.90000000000001</v>
       </c>
       <c r="D208">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E208">
         <v>99.5</v>
       </c>
       <c r="F208">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="G208">
         <v>98.3</v>
@@ -8001,7 +8004,7 @@
         <v>99.8</v>
       </c>
       <c r="F209">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="G209">
         <v>99.8</v>
@@ -8027,13 +8030,13 @@
         <v>98.59999999999999</v>
       </c>
       <c r="D210">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="E210">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="F210">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="G210">
         <v>100.4</v>
@@ -8059,7 +8062,7 @@
         <v>101.6</v>
       </c>
       <c r="D211">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="E211">
         <v>102.4</v>
@@ -8068,7 +8071,7 @@
         <v>99.7</v>
       </c>
       <c r="G211">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="H211">
         <v>100.6</v>
@@ -8091,7 +8094,7 @@
         <v>101.6</v>
       </c>
       <c r="D212">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="E212">
         <v>102</v>
@@ -8100,7 +8103,7 @@
         <v>100.4</v>
       </c>
       <c r="G212">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="H212">
         <v>100.6</v>
@@ -8123,10 +8126,10 @@
         <v>100.9</v>
       </c>
       <c r="D213">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="E213">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="F213">
         <v>99.59999999999999</v>
@@ -8152,13 +8155,13 @@
         <v>100.6</v>
       </c>
       <c r="C214">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D214">
-        <v>103.3</v>
+        <v>103.6</v>
       </c>
       <c r="E214">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="F214">
         <v>100.7</v>
@@ -8196,7 +8199,7 @@
         <v>100.5</v>
       </c>
       <c r="G215">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="H215">
         <v>100.7</v>
@@ -8228,7 +8231,7 @@
         <v>100.7</v>
       </c>
       <c r="G216">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="H216">
         <v>101.1</v>
@@ -8257,10 +8260,10 @@
         <v>97</v>
       </c>
       <c r="F217">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="G217">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="H217">
         <v>101.6</v>
@@ -8315,7 +8318,7 @@
         <v>100.5</v>
       </c>
       <c r="D219">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="E219">
         <v>97.8</v>
@@ -8324,7 +8327,7 @@
         <v>98</v>
       </c>
       <c r="G219">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="H219">
         <v>102.1</v>
@@ -8341,7 +8344,7 @@
         <v>228</v>
       </c>
       <c r="B220">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="C220">
         <v>100.3</v>
@@ -8379,7 +8382,7 @@
         <v>100.8</v>
       </c>
       <c r="D221">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="E221">
         <v>101.2</v>
@@ -8391,13 +8394,13 @@
         <v>102.4</v>
       </c>
       <c r="H221">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="I221">
         <v>101.5</v>
       </c>
       <c r="J221">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -8443,7 +8446,7 @@
         <v>100.5</v>
       </c>
       <c r="D223">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="E223">
         <v>98.2</v>
@@ -8452,7 +8455,7 @@
         <v>99.2</v>
       </c>
       <c r="G223">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="H223">
         <v>102.3</v>
@@ -8461,7 +8464,7 @@
         <v>101.5</v>
       </c>
       <c r="J223">
-        <v>101</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -8504,16 +8507,16 @@
         <v>101.2</v>
       </c>
       <c r="C225">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D225">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E225">
         <v>98.40000000000001</v>
       </c>
       <c r="F225">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G225">
         <v>103.6</v>
@@ -8522,7 +8525,7 @@
         <v>102.7</v>
       </c>
       <c r="I225">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="J225">
         <v>101.6</v>
@@ -8539,7 +8542,7 @@
         <v>100.2</v>
       </c>
       <c r="D226">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="E226">
         <v>97.90000000000001</v>
@@ -8568,7 +8571,7 @@
         <v>102.8</v>
       </c>
       <c r="C227">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="D227">
         <v>103</v>
@@ -8589,7 +8592,7 @@
         <v>102.9</v>
       </c>
       <c r="J227">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -8603,7 +8606,7 @@
         <v>100.9</v>
       </c>
       <c r="D228">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="E228">
         <v>98.40000000000001</v>
@@ -8612,7 +8615,7 @@
         <v>103.8</v>
       </c>
       <c r="G228">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="H228">
         <v>104</v>
@@ -8635,7 +8638,7 @@
         <v>100.2</v>
       </c>
       <c r="D229">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="E229">
         <v>98</v>
@@ -8644,7 +8647,7 @@
         <v>101.2</v>
       </c>
       <c r="G229">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="H229">
         <v>103.9</v>
@@ -8667,7 +8670,7 @@
         <v>102</v>
       </c>
       <c r="D230">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="E230">
         <v>98.5</v>
@@ -8682,7 +8685,7 @@
         <v>104.3</v>
       </c>
       <c r="I230">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="J230">
         <v>102.7</v>
@@ -8699,7 +8702,7 @@
         <v>100.7</v>
       </c>
       <c r="D231">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="E231">
         <v>97.5</v>
@@ -8731,7 +8734,7 @@
         <v>100</v>
       </c>
       <c r="D232">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E232">
         <v>97.3</v>
@@ -8763,7 +8766,7 @@
         <v>103.1</v>
       </c>
       <c r="D233">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="E233">
         <v>100</v>
@@ -8775,13 +8778,13 @@
         <v>105.3</v>
       </c>
       <c r="H233">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="I233">
         <v>104.2</v>
       </c>
       <c r="J233">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -8798,10 +8801,10 @@
         <v>103</v>
       </c>
       <c r="E234">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="F234">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="G234">
         <v>104.2</v>
@@ -8813,7 +8816,7 @@
         <v>104.3</v>
       </c>
       <c r="J234">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -8827,7 +8830,7 @@
         <v>104.4</v>
       </c>
       <c r="D235">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="E235">
         <v>100.8</v>
@@ -8836,7 +8839,7 @@
         <v>104.7</v>
       </c>
       <c r="G235">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="H235">
         <v>105</v>
@@ -8885,31 +8888,31 @@
         <v>245</v>
       </c>
       <c r="B237">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="C237">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D237">
-        <v>89.7</v>
+        <v>90.3</v>
       </c>
       <c r="E237">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F237">
         <v>106.7</v>
       </c>
       <c r="G237">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="H237">
         <v>106.2</v>
       </c>
       <c r="I237">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="J237">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8932,7 +8935,7 @@
         <v>106.8</v>
       </c>
       <c r="G238">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="H238">
         <v>106.6</v>
@@ -8952,10 +8955,10 @@
         <v>105</v>
       </c>
       <c r="C239">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="D239">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="E239">
         <v>99.2</v>
@@ -8993,16 +8996,16 @@
         <v>99.59999999999999</v>
       </c>
       <c r="F240">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="G240">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="H240">
         <v>107.2</v>
       </c>
       <c r="I240">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="J240">
         <v>105.4</v>
@@ -9019,13 +9022,13 @@
         <v>102.2</v>
       </c>
       <c r="D241">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="E241">
         <v>99.3</v>
       </c>
       <c r="F241">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="G241">
         <v>104.2</v>
@@ -9051,13 +9054,13 @@
         <v>102.4</v>
       </c>
       <c r="D242">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="E242">
         <v>99.09999999999999</v>
       </c>
       <c r="F242">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="G242">
         <v>105.4</v>
@@ -9069,7 +9072,7 @@
         <v>105.4</v>
       </c>
       <c r="J242">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -9083,13 +9086,13 @@
         <v>103.4</v>
       </c>
       <c r="D243">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="E243">
         <v>99.40000000000001</v>
       </c>
       <c r="F243">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="G243">
         <v>105.6</v>
@@ -9115,13 +9118,13 @@
         <v>102.7</v>
       </c>
       <c r="D244">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="E244">
         <v>98</v>
       </c>
       <c r="F244">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="G244">
         <v>106</v>
@@ -9144,22 +9147,22 @@
         <v>105.2</v>
       </c>
       <c r="C245">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="D245">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="E245">
         <v>96.8</v>
       </c>
       <c r="F245">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="G245">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="H245">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="I245">
         <v>105.2</v>
@@ -9179,19 +9182,19 @@
         <v>101.6</v>
       </c>
       <c r="D246">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="E246">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F246">
         <v>106.6</v>
       </c>
       <c r="G246">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="H246">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="I246">
         <v>105.3</v>
@@ -9205,31 +9208,31 @@
         <v>255</v>
       </c>
       <c r="B247">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="C247">
         <v>102.6</v>
       </c>
       <c r="D247">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E247">
         <v>98.90000000000001</v>
       </c>
       <c r="F247">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="G247">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="H247">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="I247">
         <v>105.9</v>
       </c>
       <c r="J247">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -9243,13 +9246,13 @@
         <v>101</v>
       </c>
       <c r="D248">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E248">
         <v>95.3</v>
       </c>
       <c r="F248">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="G248">
         <v>105.5</v>
@@ -9261,7 +9264,7 @@
         <v>105.5</v>
       </c>
       <c r="J248">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -9269,19 +9272,19 @@
         <v>257</v>
       </c>
       <c r="B249">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="C249">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="D249">
-        <v>94.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="E249">
         <v>98.2</v>
       </c>
       <c r="F249">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="G249">
         <v>103.3</v>
@@ -9290,10 +9293,10 @@
         <v>109.2</v>
       </c>
       <c r="I249">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="J249">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -9325,7 +9328,7 @@
         <v>105.8</v>
       </c>
       <c r="J250">
-        <v>107.1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -9336,7 +9339,7 @@
         <v>106</v>
       </c>
       <c r="C251">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="D251">
         <v>94</v>
@@ -9345,19 +9348,19 @@
         <v>98.40000000000001</v>
       </c>
       <c r="F251">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="G251">
         <v>105.3</v>
       </c>
       <c r="H251">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="I251">
         <v>105.7</v>
       </c>
       <c r="J251">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -9380,16 +9383,16 @@
         <v>108.2</v>
       </c>
       <c r="G252">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="H252">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="I252">
         <v>106.2</v>
       </c>
       <c r="J252">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -9397,25 +9400,25 @@
         <v>261</v>
       </c>
       <c r="B253">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="C253">
         <v>100.7</v>
       </c>
       <c r="D253">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="E253">
         <v>98.59999999999999</v>
       </c>
       <c r="F253">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="G253">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="H253">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="I253">
         <v>105.6</v>
@@ -9429,19 +9432,19 @@
         <v>262</v>
       </c>
       <c r="B254">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="C254">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="D254">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="E254">
         <v>97.8</v>
       </c>
       <c r="F254">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="G254">
         <v>107.3</v>
@@ -9450,7 +9453,7 @@
         <v>108.6</v>
       </c>
       <c r="I254">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="J254">
         <v>106.7</v>
@@ -9464,19 +9467,19 @@
         <v>105.2</v>
       </c>
       <c r="C255">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D255">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="E255">
         <v>97</v>
       </c>
       <c r="F255">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="G255">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="H255">
         <v>108.5</v>
@@ -9499,16 +9502,16 @@
         <v>97</v>
       </c>
       <c r="D256">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="E256">
         <v>97.7</v>
       </c>
       <c r="F256">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="G256">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="H256">
         <v>108.1</v>
@@ -9525,28 +9528,28 @@
         <v>265</v>
       </c>
       <c r="B257">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="C257">
         <v>100.2</v>
       </c>
       <c r="D257">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E257">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="F257">
         <v>105.5</v>
       </c>
       <c r="G257">
-        <v>110.5</v>
+        <v>110.3</v>
       </c>
       <c r="H257">
-        <v>108.5</v>
+        <v>108.7</v>
       </c>
       <c r="I257">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="J257">
         <v>106.8</v>
@@ -9557,25 +9560,25 @@
         <v>266</v>
       </c>
       <c r="B258">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="C258">
         <v>101.3</v>
       </c>
       <c r="D258">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E258">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F258">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="G258">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="H258">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="I258">
         <v>106.2</v>
@@ -9589,28 +9592,28 @@
         <v>267</v>
       </c>
       <c r="B259">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="C259">
         <v>100.8</v>
       </c>
       <c r="D259">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E259">
         <v>99.09999999999999</v>
       </c>
       <c r="F259">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="G259">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="H259">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="I259">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="J259">
         <v>107.9</v>
@@ -9624,28 +9627,28 @@
         <v>107.7</v>
       </c>
       <c r="C260">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D260">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="E260">
         <v>99</v>
       </c>
       <c r="F260">
-        <v>107.2</v>
+        <v>107.4</v>
       </c>
       <c r="G260">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="H260">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="I260">
         <v>107.6</v>
       </c>
       <c r="J260">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -9653,31 +9656,31 @@
         <v>269</v>
       </c>
       <c r="B261">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="C261">
-        <v>103.7</v>
+        <v>104</v>
       </c>
       <c r="D261">
-        <v>102.1</v>
+        <v>103.3</v>
       </c>
       <c r="E261">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="F261">
+        <v>107.7</v>
+      </c>
+      <c r="G261">
+        <v>107.7</v>
+      </c>
+      <c r="H261">
+        <v>110.6</v>
+      </c>
+      <c r="I261">
         <v>107.8</v>
       </c>
-      <c r="G261">
-        <v>107.6</v>
-      </c>
-      <c r="H261">
-        <v>110.7</v>
-      </c>
-      <c r="I261">
-        <v>107.7</v>
-      </c>
       <c r="J261">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -9688,7 +9691,7 @@
         <v>108.7</v>
       </c>
       <c r="C262">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="D262">
         <v>102.3</v>
@@ -9697,19 +9700,19 @@
         <v>102.6</v>
       </c>
       <c r="F262">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="G262">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="H262">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="I262">
         <v>108.5</v>
       </c>
       <c r="J262">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -9717,31 +9720,31 @@
         <v>271</v>
       </c>
       <c r="B263">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="C263">
         <v>105.3</v>
       </c>
       <c r="D263">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="E263">
         <v>100.3</v>
       </c>
       <c r="F263">
+        <v>108.7</v>
+      </c>
+      <c r="G263">
         <v>108.8</v>
       </c>
-      <c r="G263">
-        <v>108.7</v>
-      </c>
       <c r="H263">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="I263">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="J263">
-        <v>109.1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -9749,7 +9752,7 @@
         <v>272</v>
       </c>
       <c r="B264">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="C264">
         <v>105.2</v>
@@ -9761,19 +9764,19 @@
         <v>102.9</v>
       </c>
       <c r="F264">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="G264">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="H264">
-        <v>111.3</v>
+        <v>111.1</v>
       </c>
       <c r="I264">
         <v>109</v>
       </c>
       <c r="J264">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -9790,7 +9793,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="E265">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="F265">
         <v>108.5</v>
@@ -9799,7 +9802,7 @@
         <v>111.4</v>
       </c>
       <c r="H265">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="I265">
         <v>108.6</v>
@@ -9813,31 +9816,31 @@
         <v>274</v>
       </c>
       <c r="B266">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="C266">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="D266">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="E266">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="F266">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="G266">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="H266">
-        <v>112.5</v>
+        <v>112.4</v>
       </c>
       <c r="I266">
         <v>109.9</v>
       </c>
       <c r="J266">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -9845,16 +9848,16 @@
         <v>275</v>
       </c>
       <c r="B267">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="C267">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="D267">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="E267">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="F267">
         <v>110.4</v>
@@ -9863,10 +9866,10 @@
         <v>111.9</v>
       </c>
       <c r="H267">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="I267">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="J267">
         <v>110.5</v>
@@ -9880,28 +9883,28 @@
         <v>110.7</v>
       </c>
       <c r="C268">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="D268">
-        <v>105.2</v>
+        <v>105</v>
       </c>
       <c r="E268">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="F268">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="G268">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="H268">
-        <v>112.9</v>
+        <v>113</v>
       </c>
       <c r="I268">
         <v>110.5</v>
       </c>
       <c r="J268">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -9909,31 +9912,31 @@
         <v>277</v>
       </c>
       <c r="B269">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="C269">
         <v>106.7</v>
       </c>
       <c r="D269">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="E269">
         <v>105.7</v>
       </c>
       <c r="F269">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="G269">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="H269">
-        <v>113.8</v>
+        <v>114</v>
       </c>
       <c r="I269">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="J269">
-        <v>112.4</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -9941,31 +9944,31 @@
         <v>278</v>
       </c>
       <c r="B270">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="C270">
         <v>106</v>
       </c>
       <c r="D270">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="E270">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="F270">
-        <v>110.1</v>
+        <v>110.3</v>
       </c>
       <c r="G270">
-        <v>114.8</v>
+        <v>114.6</v>
       </c>
       <c r="H270">
-        <v>114.1</v>
+        <v>114.2</v>
       </c>
       <c r="I270">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="J270">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9973,31 +9976,31 @@
         <v>279</v>
       </c>
       <c r="B271">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="C271">
         <v>106</v>
       </c>
       <c r="D271">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="E271">
         <v>105.7</v>
       </c>
       <c r="F271">
-        <v>109.9</v>
+        <v>110.1</v>
       </c>
       <c r="G271">
-        <v>114.9</v>
+        <v>114.6</v>
       </c>
       <c r="H271">
-        <v>113.4</v>
+        <v>113.6</v>
       </c>
       <c r="I271">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="J271">
-        <v>112.3</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -10005,31 +10008,31 @@
         <v>280</v>
       </c>
       <c r="B272">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="C272">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D272">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="E272">
         <v>103.2</v>
       </c>
       <c r="F272">
-        <v>109.9</v>
+        <v>110.1</v>
       </c>
       <c r="G272">
-        <v>113.3</v>
+        <v>113.2</v>
       </c>
       <c r="H272">
-        <v>113.7</v>
+        <v>113.9</v>
       </c>
       <c r="I272">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="J272">
-        <v>111.9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -10040,28 +10043,28 @@
         <v>110.4</v>
       </c>
       <c r="C273">
-        <v>103.5</v>
+        <v>103.9</v>
       </c>
       <c r="D273">
-        <v>96.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E273">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="F273">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="G273">
-        <v>113.6</v>
+        <v>113.9</v>
       </c>
       <c r="H273">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="I273">
-        <v>109.9</v>
+        <v>110</v>
       </c>
       <c r="J273">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -10075,22 +10078,22 @@
         <v>104.7</v>
       </c>
       <c r="D274">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="E274">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="F274">
-        <v>108.6</v>
+        <v>108.4</v>
       </c>
       <c r="G274">
-        <v>113.2</v>
+        <v>113.4</v>
       </c>
       <c r="H274">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="I274">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="J274">
         <v>112.3</v>
@@ -10101,31 +10104,31 @@
         <v>283</v>
       </c>
       <c r="B275">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="C275">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="D275">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E275">
         <v>104.8</v>
       </c>
       <c r="F275">
-        <v>110.9</v>
+        <v>110.7</v>
       </c>
       <c r="G275">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="H275">
-        <v>115.2</v>
+        <v>115</v>
       </c>
       <c r="I275">
-        <v>111.4</v>
+        <v>111.2</v>
       </c>
       <c r="J275">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -10133,31 +10136,31 @@
         <v>284</v>
       </c>
       <c r="B276">
-        <v>113.1</v>
+        <v>113</v>
       </c>
       <c r="C276">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="D276">
         <v>110.2</v>
       </c>
       <c r="E276">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="F276">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="G276">
-        <v>112.8</v>
+        <v>113</v>
       </c>
       <c r="H276">
-        <v>115.6</v>
+        <v>115.4</v>
       </c>
       <c r="I276">
-        <v>112.8</v>
+        <v>112.6</v>
       </c>
       <c r="J276">
-        <v>113.3</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -10165,13 +10168,13 @@
         <v>285</v>
       </c>
       <c r="B277">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="C277">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="D277">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="E277">
         <v>103.5</v>
@@ -10180,16 +10183,16 @@
         <v>109.7</v>
       </c>
       <c r="G277">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="H277">
-        <v>115.7</v>
+        <v>115.5</v>
       </c>
       <c r="I277">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="J277">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -10197,31 +10200,31 @@
         <v>286</v>
       </c>
       <c r="B278">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="C278">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="D278">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E278">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="F278">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="G278">
         <v>114.1</v>
       </c>
       <c r="H278">
-        <v>116.4</v>
+        <v>116.3</v>
       </c>
       <c r="I278">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="J278">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -10232,13 +10235,13 @@
         <v>111.3</v>
       </c>
       <c r="C279">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="D279">
-        <v>94.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="E279">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="F279">
         <v>110.7</v>
@@ -10264,28 +10267,28 @@
         <v>112.3</v>
       </c>
       <c r="C280">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="D280">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="E280">
         <v>103</v>
       </c>
       <c r="F280">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="G280">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="H280">
-        <v>116.7</v>
+        <v>116.8</v>
       </c>
       <c r="I280">
         <v>112</v>
       </c>
       <c r="J280">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -10293,31 +10296,31 @@
         <v>289</v>
       </c>
       <c r="B281">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="C281">
         <v>105.4</v>
       </c>
       <c r="D281">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E281">
         <v>103.6</v>
       </c>
       <c r="F281">
-        <v>111.8</v>
+        <v>112</v>
       </c>
       <c r="G281">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="H281">
-        <v>117.3</v>
+        <v>117.5</v>
       </c>
       <c r="I281">
-        <v>112.7</v>
+        <v>112.8</v>
       </c>
       <c r="J281">
-        <v>114.7</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -10325,31 +10328,31 @@
         <v>290</v>
       </c>
       <c r="B282">
-        <v>113.7</v>
+        <v>113.9</v>
       </c>
       <c r="C282">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="D282">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E282">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="F282">
-        <v>111.8</v>
+        <v>112.1</v>
       </c>
       <c r="G282">
-        <v>118</v>
+        <v>117.7</v>
       </c>
       <c r="H282">
-        <v>117.9</v>
+        <v>118.2</v>
       </c>
       <c r="I282">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="J282">
-        <v>115.6</v>
+        <v>115.7</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -10357,31 +10360,31 @@
         <v>291</v>
       </c>
       <c r="B283">
-        <v>112.9</v>
+        <v>113.1</v>
       </c>
       <c r="C283">
         <v>105.7</v>
       </c>
       <c r="D283">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E283">
         <v>104.3</v>
       </c>
       <c r="F283">
-        <v>112.5</v>
+        <v>112.8</v>
       </c>
       <c r="G283">
-        <v>116.5</v>
+        <v>116.1</v>
       </c>
       <c r="H283">
-        <v>116.9</v>
+        <v>117.2</v>
       </c>
       <c r="I283">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="J283">
-        <v>114.5</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -10389,31 +10392,31 @@
         <v>292</v>
       </c>
       <c r="B284">
-        <v>113.1</v>
+        <v>113.3</v>
       </c>
       <c r="C284">
         <v>106.8</v>
       </c>
       <c r="D284">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="E284">
         <v>105.2</v>
       </c>
       <c r="F284">
-        <v>112.4</v>
+        <v>112.7</v>
       </c>
       <c r="G284">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
       <c r="H284">
-        <v>117</v>
+        <v>117.3</v>
       </c>
       <c r="I284">
-        <v>112.8</v>
+        <v>113</v>
       </c>
       <c r="J284">
-        <v>114.3</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -10424,28 +10427,28 @@
         <v>114.6</v>
       </c>
       <c r="C285">
-        <v>107.9</v>
+        <v>108.4</v>
       </c>
       <c r="D285">
-        <v>103.6</v>
+        <v>105.3</v>
       </c>
       <c r="E285">
-        <v>105.4</v>
+        <v>105.6</v>
       </c>
       <c r="F285">
-        <v>113</v>
+        <v>112.8</v>
       </c>
       <c r="G285">
-        <v>115.2</v>
+        <v>115.6</v>
       </c>
       <c r="H285">
-        <v>118.3</v>
+        <v>118.1</v>
       </c>
       <c r="I285">
-        <v>114.1</v>
+        <v>114.2</v>
       </c>
       <c r="J285">
-        <v>115.7</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -10453,31 +10456,31 @@
         <v>294</v>
       </c>
       <c r="B286">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="C286">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="D286">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="E286">
         <v>104.9</v>
       </c>
       <c r="F286">
-        <v>113.2</v>
+        <v>112.8</v>
       </c>
       <c r="G286">
-        <v>114.6</v>
+        <v>114.9</v>
       </c>
       <c r="H286">
-        <v>118.5</v>
+        <v>118.3</v>
       </c>
       <c r="I286">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="J286">
-        <v>115.4</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -10485,10 +10488,10 @@
         <v>295</v>
       </c>
       <c r="B287">
-        <v>108.1</v>
+        <v>107.9</v>
       </c>
       <c r="C287">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="D287">
         <v>100</v>
@@ -10497,19 +10500,19 @@
         <v>97.59999999999999</v>
       </c>
       <c r="F287">
-        <v>110.4</v>
+        <v>110.2</v>
       </c>
       <c r="G287">
-        <v>104.8</v>
+        <v>105.1</v>
       </c>
       <c r="H287">
-        <v>111.9</v>
+        <v>111.6</v>
       </c>
       <c r="I287">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="J287">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -10517,7 +10520,7 @@
         <v>296</v>
       </c>
       <c r="B288">
-        <v>108.8</v>
+        <v>108.6</v>
       </c>
       <c r="C288">
         <v>106.1</v>
@@ -10529,19 +10532,19 @@
         <v>104.3</v>
       </c>
       <c r="F288">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="G288">
-        <v>106</v>
+        <v>106.2</v>
       </c>
       <c r="H288">
-        <v>111.2</v>
+        <v>110.9</v>
       </c>
       <c r="I288">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="J288">
-        <v>109.5</v>
+        <v>109.3</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -10549,10 +10552,10 @@
         <v>297</v>
       </c>
       <c r="B289">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="C289">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="D289">
         <v>103.7</v>
@@ -10561,19 +10564,19 @@
         <v>103.5</v>
       </c>
       <c r="F289">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="G289">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="H289">
-        <v>115.5</v>
+        <v>115.3</v>
       </c>
       <c r="I289">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="J289">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -10581,31 +10584,31 @@
         <v>298</v>
       </c>
       <c r="B290">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
       <c r="C290">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="D290">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="E290">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="F290">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="G290">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="H290">
-        <v>118</v>
+        <v>117.9</v>
       </c>
       <c r="I290">
-        <v>113.5</v>
+        <v>113.3</v>
       </c>
       <c r="J290">
-        <v>115</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -10616,28 +10619,28 @@
         <v>114</v>
       </c>
       <c r="C291">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="D291">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="E291">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="F291">
         <v>113.1</v>
       </c>
       <c r="G291">
-        <v>114.6</v>
+        <v>114.5</v>
       </c>
       <c r="H291">
-        <v>118.4</v>
+        <v>118.5</v>
       </c>
       <c r="I291">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="J291">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -10645,31 +10648,31 @@
         <v>300</v>
       </c>
       <c r="B292">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="C292">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="D292">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="E292">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="F292">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="G292">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="H292">
-        <v>111.1</v>
+        <v>111.3</v>
       </c>
       <c r="I292">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="J292">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -10677,31 +10680,31 @@
         <v>301</v>
       </c>
       <c r="B293">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C293">
         <v>100</v>
       </c>
       <c r="D293">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="E293">
         <v>93.3</v>
       </c>
       <c r="F293">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="G293">
-        <v>92.59999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H293">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="I293">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J293">
-        <v>99</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -10709,31 +10712,31 @@
         <v>302</v>
       </c>
       <c r="B294">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C294">
         <v>97.59999999999999</v>
       </c>
       <c r="D294">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="E294">
         <v>92.90000000000001</v>
       </c>
       <c r="F294">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G294">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="H294">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I294">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J294">
-        <v>96.8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -10741,31 +10744,31 @@
         <v>303</v>
       </c>
       <c r="B295">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C295">
         <v>93.90000000000001</v>
       </c>
       <c r="D295">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="E295">
         <v>91.2</v>
       </c>
       <c r="F295">
-        <v>90.3</v>
+        <v>90.5</v>
       </c>
       <c r="G295">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="H295">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="I295">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="J295">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -10773,31 +10776,31 @@
         <v>304</v>
       </c>
       <c r="B296">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="C296">
         <v>96.09999999999999</v>
       </c>
       <c r="D296">
-        <v>103.3</v>
+        <v>103.1</v>
       </c>
       <c r="E296">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F296">
-        <v>90.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G296">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="H296">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
       <c r="I296">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J296">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -10808,28 +10811,28 @@
         <v>102.3</v>
       </c>
       <c r="C297">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="D297">
-        <v>101.3</v>
+        <v>103.2</v>
       </c>
       <c r="E297">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="F297">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="G297">
-        <v>117</v>
+        <v>117.5</v>
       </c>
       <c r="H297">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="I297">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="J297">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -10837,31 +10840,31 @@
         <v>306</v>
       </c>
       <c r="B298">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="C298">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="D298">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="E298">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="F298">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G298">
-        <v>120</v>
+        <v>120.4</v>
       </c>
       <c r="H298">
-        <v>108</v>
+        <v>107.8</v>
       </c>
       <c r="I298">
         <v>106.3</v>
       </c>
       <c r="J298">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -10869,10 +10872,10 @@
         <v>307</v>
       </c>
       <c r="B299">
-        <v>107.4</v>
+        <v>107.2</v>
       </c>
       <c r="C299">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="D299">
         <v>102</v>
@@ -10881,19 +10884,19 @@
         <v>106.1</v>
       </c>
       <c r="F299">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="G299">
-        <v>121.7</v>
+        <v>122</v>
       </c>
       <c r="H299">
-        <v>106.2</v>
+        <v>105.8</v>
       </c>
       <c r="I299">
-        <v>106.7</v>
+        <v>106.5</v>
       </c>
       <c r="J299">
-        <v>107.9</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -10901,7 +10904,7 @@
         <v>308</v>
       </c>
       <c r="B300">
-        <v>109.2</v>
+        <v>108.9</v>
       </c>
       <c r="C300">
         <v>104.2</v>
@@ -10916,16 +10919,16 @@
         <v>106.2</v>
       </c>
       <c r="G300">
-        <v>122.4</v>
+        <v>122.7</v>
       </c>
       <c r="H300">
-        <v>109.1</v>
+        <v>108.7</v>
       </c>
       <c r="I300">
-        <v>108.6</v>
+        <v>108.4</v>
       </c>
       <c r="J300">
-        <v>110</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -10933,31 +10936,31 @@
         <v>309</v>
       </c>
       <c r="B301">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="C301">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="D301">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="E301">
         <v>105.6</v>
       </c>
       <c r="F301">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="G301">
-        <v>123.6</v>
+        <v>123.7</v>
       </c>
       <c r="H301">
-        <v>114.8</v>
+        <v>114.6</v>
       </c>
       <c r="I301">
-        <v>111.5</v>
+        <v>111.3</v>
       </c>
       <c r="J301">
-        <v>113.9</v>
+        <v>113.7</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -10965,31 +10968,31 @@
         <v>310</v>
       </c>
       <c r="B302">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="C302">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="D302">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="E302">
         <v>105.7</v>
       </c>
       <c r="F302">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="G302">
-        <v>125.4</v>
+        <v>125.5</v>
       </c>
       <c r="H302">
-        <v>115.9</v>
+        <v>115.7</v>
       </c>
       <c r="I302">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="J302">
-        <v>114.4</v>
+        <v>114.2</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -10997,28 +11000,28 @@
         <v>311</v>
       </c>
       <c r="B303">
-        <v>114.1</v>
+        <v>114.2</v>
       </c>
       <c r="C303">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="D303">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="E303">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="F303">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="G303">
         <v>125.7</v>
       </c>
       <c r="H303">
-        <v>118.1</v>
+        <v>118.3</v>
       </c>
       <c r="I303">
-        <v>113.5</v>
+        <v>113.6</v>
       </c>
       <c r="J303">
         <v>116</v>
@@ -11029,31 +11032,31 @@
         <v>312</v>
       </c>
       <c r="B304">
-        <v>113</v>
+        <v>113.1</v>
       </c>
       <c r="C304">
         <v>105.3</v>
       </c>
       <c r="D304">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="E304">
         <v>106.3</v>
       </c>
       <c r="F304">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="G304">
-        <v>124.8</v>
+        <v>124.6</v>
       </c>
       <c r="H304">
-        <v>115.2</v>
+        <v>115.5</v>
       </c>
       <c r="I304">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="J304">
-        <v>114.3</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -11061,31 +11064,31 @@
         <v>313</v>
       </c>
       <c r="B305">
-        <v>111.5</v>
+        <v>111.8</v>
       </c>
       <c r="C305">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="D305">
-        <v>105.7</v>
+        <v>105.4</v>
       </c>
       <c r="E305">
         <v>105.4</v>
       </c>
       <c r="F305">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="G305">
-        <v>124.2</v>
+        <v>123.9</v>
       </c>
       <c r="H305">
-        <v>112</v>
+        <v>112.4</v>
       </c>
       <c r="I305">
-        <v>110.8</v>
+        <v>111</v>
       </c>
       <c r="J305">
-        <v>112.1</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -11093,31 +11096,31 @@
         <v>314</v>
       </c>
       <c r="B306">
-        <v>115.2</v>
+        <v>115.4</v>
       </c>
       <c r="C306">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="D306">
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="E306">
         <v>106.3</v>
       </c>
       <c r="F306">
-        <v>109.7</v>
+        <v>110</v>
       </c>
       <c r="G306">
-        <v>140.9</v>
+        <v>140.4</v>
       </c>
       <c r="H306">
-        <v>114.1</v>
+        <v>114.6</v>
       </c>
       <c r="I306">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="J306">
-        <v>116.8</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -11125,31 +11128,31 @@
         <v>315</v>
       </c>
       <c r="B307">
-        <v>117.2</v>
+        <v>117.5</v>
       </c>
       <c r="C307">
         <v>108.1</v>
       </c>
       <c r="D307">
-        <v>103.3</v>
+        <v>102.8</v>
       </c>
       <c r="E307">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="F307">
-        <v>111</v>
+        <v>111.3</v>
       </c>
       <c r="G307">
-        <v>143.7</v>
+        <v>143.1</v>
       </c>
       <c r="H307">
-        <v>116.1</v>
+        <v>116.7</v>
       </c>
       <c r="I307">
-        <v>115.7</v>
+        <v>115.9</v>
       </c>
       <c r="J307">
-        <v>119</v>
+        <v>119.4</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -11157,31 +11160,63 @@
         <v>316</v>
       </c>
       <c r="B308">
-        <v>118.8</v>
+        <v>119.2</v>
       </c>
       <c r="C308">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="D308">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="E308">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="F308">
-        <v>110.2</v>
+        <v>110.6</v>
       </c>
       <c r="G308">
-        <v>147.3</v>
+        <v>146.7</v>
       </c>
       <c r="H308">
-        <v>119</v>
+        <v>119.6</v>
       </c>
       <c r="I308">
-        <v>117.1</v>
+        <v>117.4</v>
       </c>
       <c r="J308">
-        <v>121.2</v>
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10">
+      <c r="A309" t="s">
+        <v>317</v>
+      </c>
+      <c r="B309">
+        <v>120.4</v>
+      </c>
+      <c r="C309">
+        <v>107.7</v>
+      </c>
+      <c r="D309">
+        <v>101.3</v>
+      </c>
+      <c r="E309">
+        <v>110.7</v>
+      </c>
+      <c r="F309">
+        <v>111.4</v>
+      </c>
+      <c r="G309">
+        <v>144.5</v>
+      </c>
+      <c r="H309">
+        <v>122.1</v>
+      </c>
+      <c r="I309">
+        <v>118.7</v>
+      </c>
+      <c r="J309">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Mensual.xlsx
+++ b/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>Serie</t>
   </si>
@@ -968,6 +968,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J309"/>
+  <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5988,19 +5991,19 @@
         <v>93.40000000000001</v>
       </c>
       <c r="F146">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G146">
         <v>71.2</v>
       </c>
       <c r="H146">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="I146">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="J146">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -6008,7 +6011,7 @@
         <v>155</v>
       </c>
       <c r="B147">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C147">
         <v>92.7</v>
@@ -6026,7 +6029,7 @@
         <v>71.09999999999999</v>
       </c>
       <c r="H147">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="I147">
         <v>84</v>
@@ -6058,13 +6061,13 @@
         <v>71.09999999999999</v>
       </c>
       <c r="H148">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="I148">
         <v>83.90000000000001</v>
       </c>
       <c r="J148">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -6113,7 +6116,7 @@
         <v>94.59999999999999</v>
       </c>
       <c r="E150">
-        <v>89.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="F150">
         <v>83.5</v>
@@ -6142,13 +6145,13 @@
         <v>91.09999999999999</v>
       </c>
       <c r="D151">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="E151">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="F151">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="G151">
         <v>71.2</v>
@@ -6157,7 +6160,7 @@
         <v>81</v>
       </c>
       <c r="I151">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="J151">
         <v>81.40000000000001</v>
@@ -6168,13 +6171,13 @@
         <v>160</v>
       </c>
       <c r="B152">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="C152">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="D152">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E152">
         <v>89.2</v>
@@ -6186,10 +6189,10 @@
         <v>70.7</v>
       </c>
       <c r="H152">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="I152">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="J152">
         <v>80.7</v>
@@ -6209,7 +6212,7 @@
         <v>83.7</v>
       </c>
       <c r="E153">
-        <v>89.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="F153">
         <v>83.8</v>
@@ -6218,7 +6221,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="H153">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="I153">
         <v>81.59999999999999</v>
@@ -6232,13 +6235,13 @@
         <v>162</v>
       </c>
       <c r="B154">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="C154">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D154">
-        <v>88.90000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E154">
         <v>90.40000000000001</v>
@@ -6253,10 +6256,10 @@
         <v>82</v>
       </c>
       <c r="I154">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="J154">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -6282,10 +6285,10 @@
         <v>68.5</v>
       </c>
       <c r="H155">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="I155">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="J155">
         <v>80.90000000000001</v>
@@ -6296,7 +6299,7 @@
         <v>164</v>
       </c>
       <c r="B156">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="C156">
         <v>84.2</v>
@@ -6334,7 +6337,7 @@
         <v>87.59999999999999</v>
       </c>
       <c r="D157">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="E157">
         <v>85</v>
@@ -6360,7 +6363,7 @@
         <v>166</v>
       </c>
       <c r="B158">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="C158">
         <v>85.7</v>
@@ -6392,13 +6395,13 @@
         <v>167</v>
       </c>
       <c r="B159">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="C159">
         <v>85.3</v>
       </c>
       <c r="D159">
-        <v>88</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E159">
         <v>85.7</v>
@@ -6407,10 +6410,10 @@
         <v>81.3</v>
       </c>
       <c r="G159">
-        <v>64.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="H159">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="I159">
         <v>81.5</v>
@@ -6424,7 +6427,7 @@
         <v>168</v>
       </c>
       <c r="B160">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C160">
         <v>86.59999999999999</v>
@@ -6436,7 +6439,7 @@
         <v>85.5</v>
       </c>
       <c r="F160">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G160">
         <v>64.40000000000001</v>
@@ -6445,10 +6448,10 @@
         <v>81.40000000000001</v>
       </c>
       <c r="I160">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="J160">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6468,7 +6471,7 @@
         <v>84.8</v>
       </c>
       <c r="F161">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G161">
         <v>63.1</v>
@@ -6558,7 +6561,7 @@
         <v>86.59999999999999</v>
       </c>
       <c r="D164">
-        <v>89.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="E164">
         <v>84.7</v>
@@ -6616,13 +6619,13 @@
         <v>174</v>
       </c>
       <c r="B166">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C166">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="D166">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="E166">
         <v>83.3</v>
@@ -6634,10 +6637,10 @@
         <v>64.59999999999999</v>
       </c>
       <c r="H166">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="I166">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="J166">
         <v>79.3</v>
@@ -6672,7 +6675,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="J167">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6698,7 +6701,7 @@
         <v>66.2</v>
       </c>
       <c r="H168">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="I168">
         <v>82.90000000000001</v>
@@ -6747,7 +6750,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="C170">
-        <v>86.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="D170">
         <v>89.09999999999999</v>
@@ -6776,7 +6779,7 @@
         <v>179</v>
       </c>
       <c r="B171">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C171">
         <v>89.90000000000001</v>
@@ -6814,7 +6817,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="D172">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E172">
         <v>71.8</v>
@@ -6826,7 +6829,7 @@
         <v>68.59999999999999</v>
       </c>
       <c r="H172">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="I172">
         <v>81</v>
@@ -6875,7 +6878,7 @@
         <v>85</v>
       </c>
       <c r="C174">
-        <v>87.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D174">
         <v>89.8</v>
@@ -6890,7 +6893,7 @@
         <v>75</v>
       </c>
       <c r="H174">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="I174">
         <v>85.09999999999999</v>
@@ -6904,7 +6907,7 @@
         <v>183</v>
       </c>
       <c r="B175">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C175">
         <v>90.40000000000001</v>
@@ -6942,7 +6945,7 @@
         <v>91.5</v>
       </c>
       <c r="D176">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="E176">
         <v>89.90000000000001</v>
@@ -6954,7 +6957,7 @@
         <v>75.8</v>
       </c>
       <c r="H176">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I176">
         <v>87.40000000000001</v>
@@ -7000,13 +7003,13 @@
         <v>186</v>
       </c>
       <c r="B178">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="C178">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="D178">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="E178">
         <v>89.59999999999999</v>
@@ -7021,7 +7024,7 @@
         <v>87.09999999999999</v>
       </c>
       <c r="I178">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J178">
         <v>86</v>
@@ -7044,16 +7047,16 @@
         <v>91.3</v>
       </c>
       <c r="F179">
-        <v>86.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="G179">
         <v>79.40000000000001</v>
       </c>
       <c r="H179">
-        <v>87.40000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="I179">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J179">
         <v>86.5</v>
@@ -7070,13 +7073,13 @@
         <v>93</v>
       </c>
       <c r="D180">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="E180">
         <v>92</v>
       </c>
       <c r="F180">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="G180">
         <v>80.3</v>
@@ -7088,7 +7091,7 @@
         <v>89.40000000000001</v>
       </c>
       <c r="J180">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -7099,10 +7102,10 @@
         <v>88.5</v>
       </c>
       <c r="C181">
-        <v>90.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="D181">
-        <v>90.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="E181">
         <v>91.8</v>
@@ -7166,7 +7169,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="D183">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E183">
         <v>92.59999999999999</v>
@@ -7230,7 +7233,7 @@
         <v>93</v>
       </c>
       <c r="D185">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E185">
         <v>94.09999999999999</v>
@@ -7320,7 +7323,7 @@
         <v>196</v>
       </c>
       <c r="B188">
-        <v>90.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C188">
         <v>91.59999999999999</v>
@@ -7387,10 +7390,10 @@
         <v>91.40000000000001</v>
       </c>
       <c r="C190">
-        <v>91.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D190">
-        <v>87.2</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="E190">
         <v>95.3</v>
@@ -7399,13 +7402,13 @@
         <v>92.90000000000001</v>
       </c>
       <c r="G190">
-        <v>87.40000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="H190">
         <v>92.3</v>
       </c>
       <c r="I190">
-        <v>91.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="J190">
         <v>92.09999999999999</v>
@@ -7419,10 +7422,10 @@
         <v>92.2</v>
       </c>
       <c r="C191">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D191">
-        <v>92.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E191">
         <v>93.5</v>
@@ -7463,10 +7466,10 @@
         <v>93</v>
       </c>
       <c r="G192">
-        <v>89</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H192">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="I192">
         <v>92.5</v>
@@ -7486,7 +7489,7 @@
         <v>95</v>
       </c>
       <c r="D193">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E193">
         <v>95.7</v>
@@ -7550,7 +7553,7 @@
         <v>94.59999999999999</v>
       </c>
       <c r="D195">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E195">
         <v>96.5</v>
@@ -7588,13 +7591,13 @@
         <v>98.5</v>
       </c>
       <c r="F196">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="G196">
         <v>90</v>
       </c>
       <c r="H196">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I196">
         <v>95.40000000000001</v>
@@ -7611,10 +7614,10 @@
         <v>95.8</v>
       </c>
       <c r="C197">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="D197">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="E197">
         <v>97</v>
@@ -7626,7 +7629,7 @@
         <v>90.8</v>
       </c>
       <c r="H197">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="I197">
         <v>95.8</v>
@@ -7652,7 +7655,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="F198">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="G198">
         <v>91.3</v>
@@ -7672,7 +7675,7 @@
         <v>207</v>
       </c>
       <c r="B199">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="C199">
         <v>96.3</v>
@@ -7771,16 +7774,16 @@
         <v>96.3</v>
       </c>
       <c r="C202">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D202">
-        <v>94.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E202">
         <v>98.09999999999999</v>
       </c>
       <c r="F202">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G202">
         <v>94</v>
@@ -7789,7 +7792,7 @@
         <v>97.3</v>
       </c>
       <c r="I202">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="J202">
         <v>96.59999999999999</v>
@@ -7838,7 +7841,7 @@
         <v>97</v>
       </c>
       <c r="D204">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="E204">
         <v>98.40000000000001</v>
@@ -7847,7 +7850,7 @@
         <v>96.40000000000001</v>
       </c>
       <c r="G204">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="H204">
         <v>98.09999999999999</v>
@@ -7856,7 +7859,7 @@
         <v>97.40000000000001</v>
       </c>
       <c r="J204">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -7867,13 +7870,13 @@
         <v>97.59999999999999</v>
       </c>
       <c r="C205">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D205">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="E205">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F205">
         <v>97.7</v>
@@ -7917,7 +7920,7 @@
         <v>98.59999999999999</v>
       </c>
       <c r="I206">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="J206">
         <v>98.40000000000001</v>
@@ -7931,7 +7934,7 @@
         <v>98</v>
       </c>
       <c r="C207">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D207">
         <v>96.7</v>
@@ -7972,10 +7975,10 @@
         <v>99.5</v>
       </c>
       <c r="F208">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="G208">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H208">
         <v>98.8</v>
@@ -8144,7 +8147,7 @@
         <v>100.6</v>
       </c>
       <c r="J213">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -8155,10 +8158,10 @@
         <v>100.6</v>
       </c>
       <c r="C214">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="D214">
-        <v>103.6</v>
+        <v>103.3</v>
       </c>
       <c r="E214">
         <v>100.3</v>
@@ -8170,7 +8173,7 @@
         <v>100</v>
       </c>
       <c r="H214">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="I214">
         <v>100.6</v>
@@ -8231,7 +8234,7 @@
         <v>100.7</v>
       </c>
       <c r="G216">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="H216">
         <v>101.1</v>
@@ -8254,7 +8257,7 @@
         <v>98.90000000000001</v>
       </c>
       <c r="D217">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="E217">
         <v>97</v>
@@ -8280,7 +8283,7 @@
         <v>226</v>
       </c>
       <c r="B218">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="C218">
         <v>99.2</v>
@@ -8292,7 +8295,7 @@
         <v>98</v>
       </c>
       <c r="F218">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="G218">
         <v>99.59999999999999</v>
@@ -8324,13 +8327,13 @@
         <v>97.8</v>
       </c>
       <c r="F219">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G219">
         <v>102.1</v>
       </c>
       <c r="H219">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="I219">
         <v>101.5</v>
@@ -8394,13 +8397,13 @@
         <v>102.4</v>
       </c>
       <c r="H221">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="I221">
         <v>101.5</v>
       </c>
       <c r="J221">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -8420,19 +8423,19 @@
         <v>101.4</v>
       </c>
       <c r="F222">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="G222">
         <v>104</v>
       </c>
       <c r="H222">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="I222">
         <v>102.1</v>
       </c>
       <c r="J222">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -8443,7 +8446,7 @@
         <v>101.4</v>
       </c>
       <c r="C223">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D223">
         <v>104.4</v>
@@ -8452,13 +8455,13 @@
         <v>98.2</v>
       </c>
       <c r="F223">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="G223">
         <v>101</v>
       </c>
       <c r="H223">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="I223">
         <v>101.5</v>
@@ -8478,7 +8481,7 @@
         <v>100</v>
       </c>
       <c r="D224">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="E224">
         <v>99.2</v>
@@ -8490,10 +8493,10 @@
         <v>102.3</v>
       </c>
       <c r="H224">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="I224">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="J224">
         <v>101.1</v>
@@ -8504,13 +8507,13 @@
         <v>233</v>
       </c>
       <c r="B225">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="C225">
         <v>98.59999999999999</v>
       </c>
       <c r="D225">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E225">
         <v>98.40000000000001</v>
@@ -8522,7 +8525,7 @@
         <v>103.6</v>
       </c>
       <c r="H225">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="I225">
         <v>101.3</v>
@@ -8542,10 +8545,10 @@
         <v>100.2</v>
       </c>
       <c r="D226">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="E226">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F226">
         <v>100.8</v>
@@ -8571,7 +8574,7 @@
         <v>102.8</v>
       </c>
       <c r="C227">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D227">
         <v>103</v>
@@ -8600,13 +8603,13 @@
         <v>236</v>
       </c>
       <c r="B228">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="C228">
         <v>100.9</v>
       </c>
       <c r="D228">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="E228">
         <v>98.40000000000001</v>
@@ -8624,7 +8627,7 @@
         <v>102.6</v>
       </c>
       <c r="J228">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -8638,13 +8641,13 @@
         <v>100.2</v>
       </c>
       <c r="D229">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="E229">
         <v>98</v>
       </c>
       <c r="F229">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="G229">
         <v>104.5</v>
@@ -8667,7 +8670,7 @@
         <v>103.3</v>
       </c>
       <c r="C230">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="D230">
         <v>108.4</v>
@@ -8708,7 +8711,7 @@
         <v>97.5</v>
       </c>
       <c r="F231">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="G231">
         <v>104.3</v>
@@ -8720,7 +8723,7 @@
         <v>102.8</v>
       </c>
       <c r="J231">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -8740,7 +8743,7 @@
         <v>97.3</v>
       </c>
       <c r="F232">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="G232">
         <v>104.2</v>
@@ -8769,7 +8772,7 @@
         <v>103.6</v>
       </c>
       <c r="E233">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="F233">
         <v>105.3</v>
@@ -8778,13 +8781,13 @@
         <v>105.3</v>
       </c>
       <c r="H233">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="I233">
         <v>104.2</v>
       </c>
       <c r="J233">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -8792,25 +8795,25 @@
         <v>242</v>
       </c>
       <c r="B234">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="C234">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D234">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="E234">
         <v>100.4</v>
       </c>
       <c r="F234">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="G234">
         <v>104.2</v>
       </c>
       <c r="H234">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="I234">
         <v>104.3</v>
@@ -8824,7 +8827,7 @@
         <v>243</v>
       </c>
       <c r="B235">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="C235">
         <v>104.4</v>
@@ -8836,19 +8839,19 @@
         <v>100.8</v>
       </c>
       <c r="F235">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="G235">
         <v>104.2</v>
       </c>
       <c r="H235">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="I235">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="J235">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -8862,22 +8865,22 @@
         <v>101.3</v>
       </c>
       <c r="D236">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="E236">
         <v>100.2</v>
       </c>
       <c r="F236">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="G236">
         <v>105.5</v>
       </c>
       <c r="H236">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="I236">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="J236">
         <v>104.7</v>
@@ -8894,25 +8897,25 @@
         <v>98.59999999999999</v>
       </c>
       <c r="D237">
-        <v>90.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E237">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F237">
         <v>106.7</v>
       </c>
       <c r="G237">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="H237">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="I237">
         <v>103</v>
       </c>
       <c r="J237">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8923,7 +8926,7 @@
         <v>104.6</v>
       </c>
       <c r="C238">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="D238">
         <v>99.90000000000001</v>
@@ -8932,7 +8935,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="F238">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="G238">
         <v>103.2</v>
@@ -8944,7 +8947,7 @@
         <v>104.6</v>
       </c>
       <c r="J238">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -8955,16 +8958,16 @@
         <v>105</v>
       </c>
       <c r="C239">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D239">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="E239">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F239">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="G239">
         <v>103.3</v>
@@ -8993,7 +8996,7 @@
         <v>99</v>
       </c>
       <c r="E240">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F240">
         <v>106.1</v>
@@ -9002,7 +9005,7 @@
         <v>103.6</v>
       </c>
       <c r="H240">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="I240">
         <v>104.7</v>
@@ -9022,10 +9025,10 @@
         <v>102.2</v>
       </c>
       <c r="D241">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="E241">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="F241">
         <v>106.1</v>
@@ -9048,13 +9051,13 @@
         <v>250</v>
       </c>
       <c r="B242">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="C242">
         <v>102.4</v>
       </c>
       <c r="D242">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="E242">
         <v>99.09999999999999</v>
@@ -9083,16 +9086,16 @@
         <v>105.9</v>
       </c>
       <c r="C243">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="D243">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="E243">
         <v>99.40000000000001</v>
       </c>
       <c r="F243">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="G243">
         <v>105.6</v>
@@ -9101,10 +9104,10 @@
         <v>107.9</v>
       </c>
       <c r="I243">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="J243">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -9112,19 +9115,19 @@
         <v>252</v>
       </c>
       <c r="B244">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="C244">
         <v>102.7</v>
       </c>
       <c r="D244">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="E244">
         <v>98</v>
       </c>
       <c r="F244">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="G244">
         <v>106</v>
@@ -9147,13 +9150,13 @@
         <v>105.2</v>
       </c>
       <c r="C245">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D245">
         <v>98.7</v>
       </c>
       <c r="E245">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F245">
         <v>106.8</v>
@@ -9176,7 +9179,7 @@
         <v>254</v>
       </c>
       <c r="B246">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="C246">
         <v>101.6</v>
@@ -9188,19 +9191,19 @@
         <v>95.5</v>
       </c>
       <c r="F246">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="G246">
         <v>103.5</v>
       </c>
       <c r="H246">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="I246">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="J246">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -9214,22 +9217,22 @@
         <v>102.6</v>
       </c>
       <c r="D247">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E247">
         <v>98.90000000000001</v>
       </c>
       <c r="F247">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="G247">
         <v>104.5</v>
       </c>
       <c r="H247">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="I247">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="J247">
         <v>106.7</v>
@@ -9240,10 +9243,10 @@
         <v>256</v>
       </c>
       <c r="B248">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="C248">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D248">
         <v>98.3</v>
@@ -9252,19 +9255,19 @@
         <v>95.3</v>
       </c>
       <c r="F248">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="G248">
         <v>105.5</v>
       </c>
       <c r="H248">
-        <v>108.7</v>
+        <v>108.9</v>
       </c>
       <c r="I248">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="J248">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -9278,25 +9281,25 @@
         <v>101.5</v>
       </c>
       <c r="D249">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="E249">
         <v>98.2</v>
       </c>
       <c r="F249">
-        <v>108.5</v>
+        <v>108.7</v>
       </c>
       <c r="G249">
         <v>103.3</v>
       </c>
       <c r="H249">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="I249">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="J249">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -9304,25 +9307,25 @@
         <v>258</v>
       </c>
       <c r="B250">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="C250">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="D250">
         <v>96.5</v>
       </c>
       <c r="E250">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="F250">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="G250">
         <v>105.1</v>
       </c>
       <c r="H250">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="I250">
         <v>105.8</v>
@@ -9342,13 +9345,13 @@
         <v>101</v>
       </c>
       <c r="D251">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E251">
         <v>98.40000000000001</v>
       </c>
       <c r="F251">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="G251">
         <v>105.3</v>
@@ -9368,28 +9371,28 @@
         <v>260</v>
       </c>
       <c r="B252">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="C252">
         <v>102.5</v>
       </c>
       <c r="D252">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="E252">
         <v>98.7</v>
       </c>
       <c r="F252">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="G252">
         <v>107.3</v>
       </c>
       <c r="H252">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="I252">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="J252">
         <v>107.1</v>
@@ -9406,13 +9409,13 @@
         <v>100.7</v>
       </c>
       <c r="D253">
-        <v>94.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E253">
         <v>98.59999999999999</v>
       </c>
       <c r="F253">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="G253">
         <v>106.3</v>
@@ -9424,7 +9427,7 @@
         <v>105.6</v>
       </c>
       <c r="J253">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -9438,25 +9441,25 @@
         <v>101</v>
       </c>
       <c r="D254">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="E254">
         <v>97.8</v>
       </c>
       <c r="F254">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="G254">
         <v>107.3</v>
       </c>
       <c r="H254">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="I254">
         <v>105.6</v>
       </c>
       <c r="J254">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -9464,31 +9467,31 @@
         <v>263</v>
       </c>
       <c r="B255">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="C255">
         <v>99.3</v>
       </c>
       <c r="D255">
-        <v>88.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E255">
         <v>97</v>
       </c>
       <c r="F255">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="G255">
         <v>107.3</v>
       </c>
       <c r="H255">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="I255">
         <v>104.9</v>
       </c>
       <c r="J255">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -9537,10 +9540,10 @@
         <v>96.40000000000001</v>
       </c>
       <c r="E257">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F257">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="G257">
         <v>110.3</v>
@@ -9552,7 +9555,7 @@
         <v>105.7</v>
       </c>
       <c r="J257">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -9560,31 +9563,31 @@
         <v>266</v>
       </c>
       <c r="B258">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="C258">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D258">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="E258">
         <v>99.59999999999999</v>
       </c>
       <c r="F258">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="G258">
         <v>110</v>
       </c>
       <c r="H258">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="I258">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="J258">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -9592,31 +9595,31 @@
         <v>267</v>
       </c>
       <c r="B259">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="C259">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D259">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="E259">
         <v>99.09999999999999</v>
       </c>
       <c r="F259">
-        <v>105.2</v>
+        <v>105.4</v>
       </c>
       <c r="G259">
+        <v>110</v>
+      </c>
+      <c r="H259">
         <v>110.1</v>
       </c>
-      <c r="H259">
-        <v>109.9</v>
-      </c>
       <c r="I259">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="J259">
-        <v>107.9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -9624,31 +9627,31 @@
         <v>268</v>
       </c>
       <c r="B260">
+        <v>107.9</v>
+      </c>
+      <c r="C260">
+        <v>102.8</v>
+      </c>
+      <c r="D260">
+        <v>100.6</v>
+      </c>
+      <c r="E260">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F260">
         <v>107.7</v>
-      </c>
-      <c r="C260">
-        <v>102.7</v>
-      </c>
-      <c r="D260">
-        <v>100.7</v>
-      </c>
-      <c r="E260">
-        <v>99</v>
-      </c>
-      <c r="F260">
-        <v>107.4</v>
       </c>
       <c r="G260">
         <v>109.6</v>
       </c>
       <c r="H260">
-        <v>110.8</v>
+        <v>111</v>
       </c>
       <c r="I260">
-        <v>107.6</v>
+        <v>107.8</v>
       </c>
       <c r="J260">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -9656,31 +9659,31 @@
         <v>269</v>
       </c>
       <c r="B261">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="C261">
         <v>104</v>
       </c>
       <c r="D261">
-        <v>103.3</v>
+        <v>102.9</v>
       </c>
       <c r="E261">
         <v>100.6</v>
       </c>
       <c r="F261">
-        <v>107.7</v>
+        <v>108</v>
       </c>
       <c r="G261">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="H261">
-        <v>110.6</v>
+        <v>110.8</v>
       </c>
       <c r="I261">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="J261">
-        <v>108.6</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -9688,31 +9691,31 @@
         <v>270</v>
       </c>
       <c r="B262">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="C262">
         <v>104.7</v>
       </c>
       <c r="D262">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
       <c r="E262">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="F262">
+        <v>108.2</v>
+      </c>
+      <c r="G262">
+        <v>109.9</v>
+      </c>
+      <c r="H262">
+        <v>110.8</v>
+      </c>
+      <c r="I262">
         <v>108.4</v>
       </c>
-      <c r="G262">
-        <v>109.8</v>
-      </c>
-      <c r="H262">
-        <v>110.9</v>
-      </c>
-      <c r="I262">
-        <v>108.5</v>
-      </c>
       <c r="J262">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -9723,28 +9726,28 @@
         <v>108.7</v>
       </c>
       <c r="C263">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="D263">
-        <v>107</v>
+        <v>107.3</v>
       </c>
       <c r="E263">
         <v>100.3</v>
       </c>
       <c r="F263">
-        <v>108.7</v>
+        <v>108.5</v>
       </c>
       <c r="G263">
         <v>108.8</v>
       </c>
       <c r="H263">
-        <v>111.1</v>
+        <v>111</v>
       </c>
       <c r="I263">
         <v>108.6</v>
       </c>
       <c r="J263">
-        <v>109</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -9752,31 +9755,31 @@
         <v>272</v>
       </c>
       <c r="B264">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="C264">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="D264">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="E264">
         <v>102.9</v>
       </c>
       <c r="F264">
-        <v>108.5</v>
+        <v>108.3</v>
       </c>
       <c r="G264">
         <v>111.7</v>
       </c>
       <c r="H264">
-        <v>111.1</v>
+        <v>111</v>
       </c>
       <c r="I264">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="J264">
-        <v>110.1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -9784,31 +9787,31 @@
         <v>273</v>
       </c>
       <c r="B265">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="C265">
         <v>103.8</v>
       </c>
       <c r="D265">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="E265">
         <v>102.1</v>
       </c>
       <c r="F265">
+        <v>108.4</v>
+      </c>
+      <c r="G265">
+        <v>111.5</v>
+      </c>
+      <c r="H265">
+        <v>111.4</v>
+      </c>
+      <c r="I265">
         <v>108.5</v>
       </c>
-      <c r="G265">
-        <v>111.4</v>
-      </c>
-      <c r="H265">
-        <v>111.5</v>
-      </c>
-      <c r="I265">
-        <v>108.6</v>
-      </c>
       <c r="J265">
-        <v>110</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -9816,7 +9819,7 @@
         <v>274</v>
       </c>
       <c r="B266">
-        <v>110</v>
+        <v>109.9</v>
       </c>
       <c r="C266">
         <v>105.7</v>
@@ -9828,19 +9831,19 @@
         <v>101.8</v>
       </c>
       <c r="F266">
-        <v>109.7</v>
+        <v>109.4</v>
       </c>
       <c r="G266">
         <v>112.3</v>
       </c>
       <c r="H266">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="I266">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="J266">
-        <v>110.5</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -9857,22 +9860,22 @@
         <v>107.7</v>
       </c>
       <c r="E267">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="F267">
-        <v>110.4</v>
+        <v>110.2</v>
       </c>
       <c r="G267">
         <v>111.9</v>
       </c>
       <c r="H267">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="I267">
         <v>110</v>
       </c>
       <c r="J267">
-        <v>110.5</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -9898,13 +9901,13 @@
         <v>113.8</v>
       </c>
       <c r="H268">
-        <v>113</v>
+        <v>112.9</v>
       </c>
       <c r="I268">
         <v>110.5</v>
       </c>
       <c r="J268">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -9915,16 +9918,16 @@
         <v>111.5</v>
       </c>
       <c r="C269">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D269">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="E269">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="F269">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="G269">
         <v>114.1</v>
@@ -9944,31 +9947,31 @@
         <v>278</v>
       </c>
       <c r="B270">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="C270">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D270">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="E270">
         <v>103.8</v>
       </c>
       <c r="F270">
-        <v>110.3</v>
+        <v>110.5</v>
       </c>
       <c r="G270">
-        <v>114.6</v>
+        <v>114.5</v>
       </c>
       <c r="H270">
-        <v>114.2</v>
+        <v>114.4</v>
       </c>
       <c r="I270">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="J270">
-        <v>112.5</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9976,31 +9979,31 @@
         <v>279</v>
       </c>
       <c r="B271">
-        <v>111.3</v>
+        <v>111.5</v>
       </c>
       <c r="C271">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D271">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="E271">
         <v>105.7</v>
       </c>
       <c r="F271">
-        <v>110.1</v>
+        <v>110.5</v>
       </c>
       <c r="G271">
         <v>114.6</v>
       </c>
       <c r="H271">
-        <v>113.6</v>
+        <v>113.9</v>
       </c>
       <c r="I271">
-        <v>110.8</v>
+        <v>111</v>
       </c>
       <c r="J271">
-        <v>112.5</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -10008,31 +10011,31 @@
         <v>280</v>
       </c>
       <c r="B272">
-        <v>111.3</v>
+        <v>111.5</v>
       </c>
       <c r="C272">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D272">
-        <v>104</v>
+        <v>103.7</v>
       </c>
       <c r="E272">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="F272">
-        <v>110.1</v>
+        <v>110.5</v>
       </c>
       <c r="G272">
         <v>113.2</v>
       </c>
       <c r="H272">
-        <v>113.9</v>
+        <v>114.3</v>
       </c>
       <c r="I272">
-        <v>110.9</v>
+        <v>111.2</v>
       </c>
       <c r="J272">
-        <v>112</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -10040,31 +10043,31 @@
         <v>281</v>
       </c>
       <c r="B273">
-        <v>110.4</v>
+        <v>110.6</v>
       </c>
       <c r="C273">
+        <v>104</v>
+      </c>
+      <c r="D273">
+        <v>97.8</v>
+      </c>
+      <c r="E273">
         <v>103.9</v>
       </c>
-      <c r="D273">
-        <v>98.3</v>
-      </c>
-      <c r="E273">
-        <v>103.8</v>
-      </c>
       <c r="F273">
-        <v>108</v>
+        <v>108.5</v>
       </c>
       <c r="G273">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="H273">
-        <v>113.8</v>
+        <v>114.1</v>
       </c>
       <c r="I273">
-        <v>110</v>
+        <v>110.2</v>
       </c>
       <c r="J273">
-        <v>111.7</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -10072,31 +10075,31 @@
         <v>282</v>
       </c>
       <c r="B274">
-        <v>111.2</v>
+        <v>111</v>
       </c>
       <c r="C274">
         <v>104.7</v>
       </c>
       <c r="D274">
-        <v>100.8</v>
+        <v>101.2</v>
       </c>
       <c r="E274">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="F274">
-        <v>108.4</v>
+        <v>108.1</v>
       </c>
       <c r="G274">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="H274">
-        <v>114.6</v>
+        <v>114.3</v>
       </c>
       <c r="I274">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="J274">
-        <v>112.3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -10104,31 +10107,31 @@
         <v>283</v>
       </c>
       <c r="B275">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="C275">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="D275">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E275">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="F275">
-        <v>110.7</v>
+        <v>110.3</v>
       </c>
       <c r="G275">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="H275">
-        <v>115</v>
+        <v>114.8</v>
       </c>
       <c r="I275">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="J275">
-        <v>113.1</v>
+        <v>112.9</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -10136,31 +10139,31 @@
         <v>284</v>
       </c>
       <c r="B276">
-        <v>113</v>
+        <v>112.8</v>
       </c>
       <c r="C276">
         <v>108.7</v>
       </c>
       <c r="D276">
-        <v>110.2</v>
+        <v>110.4</v>
       </c>
       <c r="E276">
         <v>104.1</v>
       </c>
       <c r="F276">
-        <v>111.1</v>
+        <v>110.8</v>
       </c>
       <c r="G276">
+        <v>113.1</v>
+      </c>
+      <c r="H276">
+        <v>115.1</v>
+      </c>
+      <c r="I276">
+        <v>112.5</v>
+      </c>
+      <c r="J276">
         <v>113</v>
-      </c>
-      <c r="H276">
-        <v>115.4</v>
-      </c>
-      <c r="I276">
-        <v>112.6</v>
-      </c>
-      <c r="J276">
-        <v>113.2</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -10168,31 +10171,31 @@
         <v>285</v>
       </c>
       <c r="B277">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="C277">
         <v>105.3</v>
       </c>
       <c r="D277">
-        <v>101.4</v>
+        <v>101.6</v>
       </c>
       <c r="E277">
         <v>103.5</v>
       </c>
       <c r="F277">
-        <v>109.7</v>
+        <v>109.5</v>
       </c>
       <c r="G277">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="H277">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="I277">
         <v>111.4</v>
       </c>
       <c r="J277">
-        <v>112.7</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -10200,31 +10203,31 @@
         <v>286</v>
       </c>
       <c r="B278">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="C278">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="D278">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E278">
         <v>104.6</v>
       </c>
       <c r="F278">
-        <v>111.3</v>
+        <v>111</v>
       </c>
       <c r="G278">
-        <v>114.1</v>
+        <v>114.2</v>
       </c>
       <c r="H278">
-        <v>116.3</v>
+        <v>116.1</v>
       </c>
       <c r="I278">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="J278">
-        <v>113.7</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -10232,7 +10235,7 @@
         <v>287</v>
       </c>
       <c r="B279">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C279">
         <v>103.1</v>
@@ -10241,22 +10244,22 @@
         <v>94.2</v>
       </c>
       <c r="E279">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="F279">
-        <v>110.7</v>
+        <v>110.4</v>
       </c>
       <c r="G279">
         <v>114.3</v>
       </c>
       <c r="H279">
-        <v>116</v>
+        <v>115.9</v>
       </c>
       <c r="I279">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="J279">
-        <v>113.1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -10264,7 +10267,7 @@
         <v>288</v>
       </c>
       <c r="B280">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="C280">
         <v>104.6</v>
@@ -10276,19 +10279,19 @@
         <v>103</v>
       </c>
       <c r="F280">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="G280">
         <v>114.7</v>
       </c>
       <c r="H280">
-        <v>116.8</v>
+        <v>116.6</v>
       </c>
       <c r="I280">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="J280">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -10296,31 +10299,31 @@
         <v>289</v>
       </c>
       <c r="B281">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="C281">
         <v>105.4</v>
       </c>
       <c r="D281">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E281">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="F281">
-        <v>112</v>
+        <v>112.1</v>
       </c>
       <c r="G281">
-        <v>116.5</v>
+        <v>116.4</v>
       </c>
       <c r="H281">
-        <v>117.5</v>
+        <v>117.7</v>
       </c>
       <c r="I281">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
       <c r="J281">
-        <v>114.9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -10328,31 +10331,31 @@
         <v>290</v>
       </c>
       <c r="B282">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="C282">
         <v>105.5</v>
       </c>
       <c r="D282">
-        <v>96.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="E282">
         <v>105.6</v>
       </c>
       <c r="F282">
-        <v>112.1</v>
+        <v>112.4</v>
       </c>
       <c r="G282">
-        <v>117.7</v>
+        <v>117.6</v>
       </c>
       <c r="H282">
-        <v>118.2</v>
+        <v>118.4</v>
       </c>
       <c r="I282">
-        <v>113.3</v>
+        <v>113.5</v>
       </c>
       <c r="J282">
-        <v>115.7</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -10360,31 +10363,31 @@
         <v>291</v>
       </c>
       <c r="B283">
-        <v>113.1</v>
+        <v>113.3</v>
       </c>
       <c r="C283">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D283">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E283">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="F283">
-        <v>112.8</v>
+        <v>113.4</v>
       </c>
       <c r="G283">
-        <v>116.1</v>
+        <v>116</v>
       </c>
       <c r="H283">
-        <v>117.2</v>
+        <v>117.6</v>
       </c>
       <c r="I283">
-        <v>112.7</v>
+        <v>113</v>
       </c>
       <c r="J283">
-        <v>114.7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -10392,31 +10395,31 @@
         <v>292</v>
       </c>
       <c r="B284">
+        <v>113.6</v>
+      </c>
+      <c r="C284">
+        <v>107</v>
+      </c>
+      <c r="D284">
+        <v>100.4</v>
+      </c>
+      <c r="E284">
+        <v>105.3</v>
+      </c>
+      <c r="F284">
         <v>113.3</v>
       </c>
-      <c r="C284">
-        <v>106.8</v>
-      </c>
-      <c r="D284">
-        <v>100.7</v>
-      </c>
-      <c r="E284">
-        <v>105.2</v>
-      </c>
-      <c r="F284">
-        <v>112.7</v>
-      </c>
       <c r="G284">
-        <v>113.7</v>
+        <v>113.5</v>
       </c>
       <c r="H284">
-        <v>117.3</v>
+        <v>117.8</v>
       </c>
       <c r="I284">
-        <v>113</v>
+        <v>113.3</v>
       </c>
       <c r="J284">
-        <v>114.6</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -10424,31 +10427,31 @@
         <v>293</v>
       </c>
       <c r="B285">
-        <v>114.6</v>
+        <v>114.9</v>
       </c>
       <c r="C285">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="D285">
-        <v>105.3</v>
+        <v>104.7</v>
       </c>
       <c r="E285">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="F285">
-        <v>112.8</v>
+        <v>113.6</v>
       </c>
       <c r="G285">
-        <v>115.6</v>
+        <v>115.4</v>
       </c>
       <c r="H285">
-        <v>118.1</v>
+        <v>118.6</v>
       </c>
       <c r="I285">
-        <v>114.2</v>
+        <v>114.5</v>
       </c>
       <c r="J285">
-        <v>115.5</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -10456,31 +10459,31 @@
         <v>294</v>
       </c>
       <c r="B286">
-        <v>114.1</v>
+        <v>113.8</v>
       </c>
       <c r="C286">
         <v>107.4</v>
       </c>
       <c r="D286">
-        <v>102.7</v>
+        <v>103.5</v>
       </c>
       <c r="E286">
-        <v>104.9</v>
+        <v>104.7</v>
       </c>
       <c r="F286">
-        <v>112.8</v>
+        <v>112.3</v>
       </c>
       <c r="G286">
+        <v>115</v>
+      </c>
+      <c r="H286">
+        <v>117.9</v>
+      </c>
+      <c r="I286">
+        <v>113.6</v>
+      </c>
+      <c r="J286">
         <v>114.9</v>
-      </c>
-      <c r="H286">
-        <v>118.3</v>
-      </c>
-      <c r="I286">
-        <v>113.8</v>
-      </c>
-      <c r="J286">
-        <v>115.3</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -10488,31 +10491,31 @@
         <v>295</v>
       </c>
       <c r="B287">
-        <v>107.9</v>
+        <v>107.7</v>
       </c>
       <c r="C287">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="D287">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="E287">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F287">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="G287">
         <v>105.1</v>
       </c>
       <c r="H287">
-        <v>111.6</v>
+        <v>111.3</v>
       </c>
       <c r="I287">
-        <v>107.8</v>
+        <v>107.6</v>
       </c>
       <c r="J287">
-        <v>108.7</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -10520,31 +10523,31 @@
         <v>296</v>
       </c>
       <c r="B288">
-        <v>108.6</v>
+        <v>108.4</v>
       </c>
       <c r="C288">
-        <v>106.1</v>
+        <v>105.9</v>
       </c>
       <c r="D288">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="E288">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="F288">
-        <v>110.9</v>
+        <v>110.4</v>
       </c>
       <c r="G288">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="H288">
-        <v>110.9</v>
+        <v>110.4</v>
       </c>
       <c r="I288">
-        <v>108.6</v>
+        <v>108.3</v>
       </c>
       <c r="J288">
-        <v>109.3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -10552,31 +10555,31 @@
         <v>297</v>
       </c>
       <c r="B289">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="C289">
         <v>106.8</v>
       </c>
       <c r="D289">
-        <v>103.7</v>
+        <v>103.9</v>
       </c>
       <c r="E289">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="F289">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="G289">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="H289">
-        <v>115.3</v>
+        <v>115.1</v>
       </c>
       <c r="I289">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="J289">
-        <v>112.8</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -10584,31 +10587,31 @@
         <v>298</v>
       </c>
       <c r="B290">
-        <v>113.7</v>
+        <v>113.5</v>
       </c>
       <c r="C290">
-        <v>106.9</v>
+        <v>106.7</v>
       </c>
       <c r="D290">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="E290">
         <v>104.1</v>
       </c>
       <c r="F290">
-        <v>112.7</v>
+        <v>112.3</v>
       </c>
       <c r="G290">
         <v>114.1</v>
       </c>
       <c r="H290">
-        <v>117.9</v>
+        <v>117.7</v>
       </c>
       <c r="I290">
-        <v>113.3</v>
+        <v>113.2</v>
       </c>
       <c r="J290">
-        <v>114.9</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -10616,7 +10619,7 @@
         <v>299</v>
       </c>
       <c r="B291">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="C291">
         <v>107.2</v>
@@ -10625,22 +10628,22 @@
         <v>102.5</v>
       </c>
       <c r="E291">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="F291">
-        <v>113.1</v>
+        <v>112.8</v>
       </c>
       <c r="G291">
         <v>114.5</v>
       </c>
       <c r="H291">
-        <v>118.5</v>
+        <v>118.3</v>
       </c>
       <c r="I291">
-        <v>113.9</v>
+        <v>113.7</v>
       </c>
       <c r="J291">
-        <v>115.2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -10648,28 +10651,28 @@
         <v>300</v>
       </c>
       <c r="B292">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="C292">
         <v>104.5</v>
       </c>
       <c r="D292">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="E292">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="F292">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="G292">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="H292">
-        <v>111.3</v>
+        <v>111.1</v>
       </c>
       <c r="I292">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="J292">
         <v>108.5</v>
@@ -10680,31 +10683,31 @@
         <v>301</v>
       </c>
       <c r="B293">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C293">
         <v>100</v>
       </c>
       <c r="D293">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="E293">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F293">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="G293">
         <v>92.40000000000001</v>
       </c>
       <c r="H293">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="I293">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J293">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -10712,31 +10715,31 @@
         <v>302</v>
       </c>
       <c r="B294">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C294">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="D294">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E294">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F294">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G294">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="H294">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="I294">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="J294">
-        <v>97</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -10744,31 +10747,31 @@
         <v>303</v>
       </c>
       <c r="B295">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="C295">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="D295">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="E295">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="F295">
-        <v>90.5</v>
+        <v>91</v>
       </c>
       <c r="G295">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="H295">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="I295">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="J295">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -10776,31 +10779,31 @@
         <v>304</v>
       </c>
       <c r="B296">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="C296">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="D296">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="E296">
-        <v>95.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="F296">
-        <v>91.09999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="G296">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="H296">
-        <v>100.7</v>
+        <v>101.2</v>
       </c>
       <c r="I296">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="J296">
         <v>99.09999999999999</v>
-      </c>
-      <c r="J296">
-        <v>98.7</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -10808,31 +10811,31 @@
         <v>305</v>
       </c>
       <c r="B297">
-        <v>102.3</v>
+        <v>102.6</v>
       </c>
       <c r="C297">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="D297">
-        <v>103.2</v>
+        <v>102.4</v>
       </c>
       <c r="E297">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F297">
-        <v>93.7</v>
+        <v>94.5</v>
       </c>
       <c r="G297">
-        <v>117.5</v>
+        <v>117.3</v>
       </c>
       <c r="H297">
-        <v>100.8</v>
+        <v>101.3</v>
       </c>
       <c r="I297">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="J297">
-        <v>102.1</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -10840,31 +10843,31 @@
         <v>306</v>
       </c>
       <c r="B298">
-        <v>106.9</v>
+        <v>106.7</v>
       </c>
       <c r="C298">
         <v>100.4</v>
       </c>
       <c r="D298">
-        <v>101.3</v>
+        <v>102.4</v>
       </c>
       <c r="E298">
-        <v>102.2</v>
+        <v>101.9</v>
       </c>
       <c r="F298">
-        <v>98.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="G298">
-        <v>120.4</v>
+        <v>120.7</v>
       </c>
       <c r="H298">
-        <v>107.8</v>
+        <v>107.3</v>
       </c>
       <c r="I298">
-        <v>106.3</v>
+        <v>106</v>
       </c>
       <c r="J298">
-        <v>107.5</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -10872,31 +10875,31 @@
         <v>307</v>
       </c>
       <c r="B299">
-        <v>107.2</v>
+        <v>107</v>
       </c>
       <c r="C299">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="D299">
-        <v>102</v>
+        <v>102.5</v>
       </c>
       <c r="E299">
-        <v>106.1</v>
+        <v>105.9</v>
       </c>
       <c r="F299">
-        <v>102.5</v>
+        <v>101.8</v>
       </c>
       <c r="G299">
-        <v>122</v>
+        <v>122.1</v>
       </c>
       <c r="H299">
-        <v>105.8</v>
+        <v>105.5</v>
       </c>
       <c r="I299">
-        <v>106.5</v>
+        <v>106.3</v>
       </c>
       <c r="J299">
-        <v>107.7</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -10904,31 +10907,31 @@
         <v>308</v>
       </c>
       <c r="B300">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="C300">
-        <v>104.2</v>
+        <v>104</v>
       </c>
       <c r="D300">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="E300">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="F300">
-        <v>106.2</v>
+        <v>105.6</v>
       </c>
       <c r="G300">
-        <v>122.7</v>
+        <v>122.8</v>
       </c>
       <c r="H300">
-        <v>108.7</v>
+        <v>108.2</v>
       </c>
       <c r="I300">
-        <v>108.4</v>
+        <v>108.1</v>
       </c>
       <c r="J300">
-        <v>109.7</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -10936,31 +10939,31 @@
         <v>309</v>
       </c>
       <c r="B301">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="C301">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="D301">
-        <v>94</v>
+        <v>94.3</v>
       </c>
       <c r="E301">
         <v>105.6</v>
       </c>
       <c r="F301">
-        <v>109.1</v>
+        <v>108.8</v>
       </c>
       <c r="G301">
-        <v>123.7</v>
+        <v>123.9</v>
       </c>
       <c r="H301">
-        <v>114.6</v>
+        <v>114.3</v>
       </c>
       <c r="I301">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="J301">
-        <v>113.7</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -10968,10 +10971,10 @@
         <v>310</v>
       </c>
       <c r="B302">
-        <v>112.7</v>
+        <v>112.5</v>
       </c>
       <c r="C302">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="D302">
         <v>100.4</v>
@@ -10980,19 +10983,19 @@
         <v>105.7</v>
       </c>
       <c r="F302">
-        <v>106.8</v>
+        <v>106.5</v>
       </c>
       <c r="G302">
         <v>125.5</v>
       </c>
       <c r="H302">
-        <v>115.7</v>
+        <v>115.5</v>
       </c>
       <c r="I302">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="J302">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -11000,31 +11003,31 @@
         <v>311</v>
       </c>
       <c r="B303">
-        <v>114.2</v>
+        <v>114</v>
       </c>
       <c r="C303">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="D303">
         <v>99.5</v>
       </c>
       <c r="E303">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="F303">
-        <v>106.6</v>
+        <v>106.3</v>
       </c>
       <c r="G303">
         <v>125.7</v>
       </c>
       <c r="H303">
-        <v>118.3</v>
+        <v>118.1</v>
       </c>
       <c r="I303">
-        <v>113.6</v>
+        <v>113.4</v>
       </c>
       <c r="J303">
-        <v>116</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -11032,31 +11035,31 @@
         <v>312</v>
       </c>
       <c r="B304">
-        <v>113.1</v>
+        <v>113</v>
       </c>
       <c r="C304">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="D304">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="E304">
         <v>106.3</v>
       </c>
       <c r="F304">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="G304">
         <v>124.6</v>
       </c>
       <c r="H304">
-        <v>115.5</v>
+        <v>115.3</v>
       </c>
       <c r="I304">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="J304">
-        <v>114.5</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -11064,31 +11067,31 @@
         <v>313</v>
       </c>
       <c r="B305">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="C305">
         <v>105.7</v>
       </c>
       <c r="D305">
-        <v>105.4</v>
+        <v>105.1</v>
       </c>
       <c r="E305">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="F305">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="G305">
         <v>123.9</v>
       </c>
       <c r="H305">
-        <v>112.4</v>
+        <v>112.7</v>
       </c>
       <c r="I305">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="J305">
-        <v>112.4</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -11096,31 +11099,31 @@
         <v>314</v>
       </c>
       <c r="B306">
-        <v>115.4</v>
+        <v>115.6</v>
       </c>
       <c r="C306">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D306">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="E306">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="F306">
-        <v>110</v>
+        <v>110.4</v>
       </c>
       <c r="G306">
-        <v>140.4</v>
+        <v>140.3</v>
       </c>
       <c r="H306">
-        <v>114.6</v>
+        <v>115.1</v>
       </c>
       <c r="I306">
-        <v>113.8</v>
+        <v>114.1</v>
       </c>
       <c r="J306">
-        <v>117.1</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -11128,31 +11131,31 @@
         <v>315</v>
       </c>
       <c r="B307">
-        <v>117.5</v>
+        <v>117.9</v>
       </c>
       <c r="C307">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="D307">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="E307">
         <v>110.3</v>
       </c>
       <c r="F307">
-        <v>111.3</v>
+        <v>112.1</v>
       </c>
       <c r="G307">
-        <v>143.1</v>
+        <v>142.9</v>
       </c>
       <c r="H307">
-        <v>116.7</v>
+        <v>117.4</v>
       </c>
       <c r="I307">
-        <v>115.9</v>
+        <v>116.3</v>
       </c>
       <c r="J307">
-        <v>119.4</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -11160,31 +11163,31 @@
         <v>316</v>
       </c>
       <c r="B308">
-        <v>119.2</v>
+        <v>119.6</v>
       </c>
       <c r="C308">
-        <v>107.2</v>
+        <v>107.4</v>
       </c>
       <c r="D308">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
       <c r="E308">
-        <v>110.5</v>
+        <v>110.7</v>
       </c>
       <c r="F308">
-        <v>110.6</v>
+        <v>111.5</v>
       </c>
       <c r="G308">
-        <v>146.7</v>
+        <v>146.5</v>
       </c>
       <c r="H308">
-        <v>119.6</v>
+        <v>120.4</v>
       </c>
       <c r="I308">
-        <v>117.4</v>
+        <v>117.8</v>
       </c>
       <c r="J308">
-        <v>121.6</v>
+        <v>122.2</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -11192,31 +11195,63 @@
         <v>317</v>
       </c>
       <c r="B309">
-        <v>120.4</v>
+        <v>120.9</v>
       </c>
       <c r="C309">
-        <v>107.7</v>
+        <v>107.9</v>
       </c>
       <c r="D309">
-        <v>101.3</v>
+        <v>100.5</v>
       </c>
       <c r="E309">
-        <v>110.7</v>
+        <v>110.9</v>
       </c>
       <c r="F309">
-        <v>111.4</v>
+        <v>112.6</v>
       </c>
       <c r="G309">
-        <v>144.5</v>
+        <v>144.2</v>
       </c>
       <c r="H309">
-        <v>122.1</v>
+        <v>122.9</v>
       </c>
       <c r="I309">
-        <v>118.7</v>
+        <v>119.1</v>
       </c>
       <c r="J309">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10">
+      <c r="A310" t="s">
+        <v>318</v>
+      </c>
+      <c r="B310">
         <v>123</v>
+      </c>
+      <c r="C310">
+        <v>107.6</v>
+      </c>
+      <c r="D310">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="E310">
+        <v>112.1</v>
+      </c>
+      <c r="F310">
+        <v>115.8</v>
+      </c>
+      <c r="G310">
+        <v>144.7</v>
+      </c>
+      <c r="H310">
+        <v>127.4</v>
+      </c>
+      <c r="I310">
+        <v>121.4</v>
+      </c>
+      <c r="J310">
+        <v>126.8</v>
       </c>
     </row>
   </sheetData>
